--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['15', '18']</t>
+  </si>
+  <si>
+    <t>['32', '88']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -938,6 +944,12 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['10', '64', '80']</t>
+  </si>
+  <si>
+    <t>['17', '50']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK227"/>
+  <dimension ref="A1:BK232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2319,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2689,7 +2701,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2967,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT9">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3071,7 +3083,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3158,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT10">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3352,7 +3364,7 @@
         <v>1.93</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU11">
         <v>2.15</v>
@@ -3453,7 +3465,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3543,7 +3555,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3731,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT13">
         <v>0.85</v>
@@ -3835,7 +3847,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4307,7 +4319,7 @@
         <v>2.08</v>
       </c>
       <c r="AT16">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4408,7 +4420,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4686,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
         <v>0.7</v>
@@ -4790,7 +4802,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4981,7 +4993,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5068,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT20">
         <v>1.15</v>
@@ -5745,7 +5757,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6023,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT25">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -6318,7 +6330,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6408,7 +6420,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6596,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT28">
         <v>0.85</v>
@@ -6700,7 +6712,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6790,7 +6802,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU29">
         <v>1.95</v>
@@ -6891,7 +6903,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6981,7 +6993,7 @@
         <v>2.08</v>
       </c>
       <c r="AT30">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU30">
         <v>2.5</v>
@@ -7273,7 +7285,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7464,7 +7476,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7933,7 +7945,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>0.6</v>
@@ -8124,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT36">
         <v>0.6899999999999999</v>
@@ -8228,7 +8240,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8315,7 +8327,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
         <v>1.15</v>
@@ -8697,7 +8709,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT39">
         <v>1.1</v>
@@ -8801,7 +8813,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8992,7 +9004,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9183,7 +9195,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9374,7 +9386,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9464,7 +9476,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU43">
         <v>1.81</v>
@@ -9655,7 +9667,7 @@
         <v>2.15</v>
       </c>
       <c r="AT44">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU44">
         <v>2.03</v>
@@ -9843,10 +9855,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU45">
         <v>2.31</v>
@@ -10419,7 +10431,7 @@
         <v>1.9</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10610,7 +10622,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10711,7 +10723,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11475,7 +11487,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11857,7 +11869,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12048,7 +12060,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12135,7 +12147,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT57">
         <v>0.7</v>
@@ -12517,10 +12529,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU59">
         <v>1.98</v>
@@ -12899,7 +12911,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT61">
         <v>1.57</v>
@@ -13003,7 +13015,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13194,7 +13206,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13281,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
         <v>0.6899999999999999</v>
@@ -13576,7 +13588,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13767,7 +13779,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13857,7 +13869,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU66">
         <v>1.84</v>
@@ -14048,7 +14060,7 @@
         <v>1.93</v>
       </c>
       <c r="AT67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14618,7 +14630,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT70">
         <v>0.7</v>
@@ -14812,7 +14824,7 @@
         <v>2.38</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU71">
         <v>2.08</v>
@@ -14913,7 +14925,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15194,7 +15206,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU73">
         <v>1.76</v>
@@ -15486,7 +15498,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15764,7 +15776,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT76">
         <v>0.6899999999999999</v>
@@ -15958,7 +15970,7 @@
         <v>1.9</v>
       </c>
       <c r="AT77">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU77">
         <v>1.62</v>
@@ -16059,7 +16071,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16146,7 +16158,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16250,7 +16262,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16337,7 +16349,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT79">
         <v>0.7</v>
@@ -16632,7 +16644,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16722,7 +16734,7 @@
         <v>2.43</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -16910,7 +16922,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
         <v>0.3</v>
@@ -17292,7 +17304,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT84">
         <v>0.7</v>
@@ -17778,7 +17790,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18632,7 +18644,7 @@
         <v>2.38</v>
       </c>
       <c r="AT91">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU91">
         <v>2.01</v>
@@ -18733,7 +18745,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18924,7 +18936,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19115,7 +19127,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19497,7 +19509,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19587,7 +19599,7 @@
         <v>1.9</v>
       </c>
       <c r="AT96">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>2.07</v>
@@ -19879,7 +19891,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19969,7 +19981,7 @@
         <v>2.23</v>
       </c>
       <c r="AT98">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU98">
         <v>1.64</v>
@@ -20070,7 +20082,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20160,7 +20172,7 @@
         <v>1.8</v>
       </c>
       <c r="AT99">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20348,7 +20360,7 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -20730,7 +20742,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT102">
         <v>0.7</v>
@@ -20921,7 +20933,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT103">
         <v>0.6</v>
@@ -21216,7 +21228,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21306,7 +21318,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21598,7 +21610,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21688,7 +21700,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21876,7 +21888,7 @@
         <v>0.8</v>
       </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
         <v>0.8</v>
@@ -22067,7 +22079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT109">
         <v>0.6899999999999999</v>
@@ -22171,7 +22183,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22452,7 +22464,7 @@
         <v>1.3</v>
       </c>
       <c r="AT111">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU111">
         <v>1.48</v>
@@ -22834,7 +22846,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU113">
         <v>1.82</v>
@@ -23216,7 +23228,7 @@
         <v>1.6</v>
       </c>
       <c r="AT115">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU115">
         <v>1.55</v>
@@ -23317,7 +23329,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23699,7 +23711,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24168,10 +24180,10 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT120">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.46</v>
@@ -24272,7 +24284,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24362,7 +24374,7 @@
         <v>2.08</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU121">
         <v>1.98</v>
@@ -24463,7 +24475,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24741,7 +24753,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT123">
         <v>0.8</v>
@@ -24845,7 +24857,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24932,7 +24944,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT124">
         <v>0.6</v>
@@ -25123,10 +25135,10 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT125">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU125">
         <v>1.54</v>
@@ -25314,7 +25326,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT126">
         <v>0.6899999999999999</v>
@@ -25699,7 +25711,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU128">
         <v>1.88</v>
@@ -25800,7 +25812,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25991,7 +26003,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26182,7 +26194,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26564,7 +26576,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26651,7 +26663,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT133">
         <v>0.92</v>
@@ -26755,7 +26767,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26946,7 +26958,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27036,7 +27048,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU135">
         <v>1.65</v>
@@ -27415,10 +27427,10 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27710,7 +27722,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27988,7 +28000,7 @@
         <v>0.33</v>
       </c>
       <c r="AS140">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT140">
         <v>0.3</v>
@@ -28182,7 +28194,7 @@
         <v>1.9</v>
       </c>
       <c r="AT141">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU141">
         <v>1.87</v>
@@ -28370,7 +28382,7 @@
         <v>1.6</v>
       </c>
       <c r="AS142">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT142">
         <v>1.57</v>
@@ -28564,7 +28576,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -29047,7 +29059,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29325,10 +29337,10 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT147">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU147">
         <v>1.4</v>
@@ -29429,7 +29441,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29516,7 +29528,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT148">
         <v>0.85</v>
@@ -29620,7 +29632,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -30002,7 +30014,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30283,7 +30295,7 @@
         <v>1.93</v>
       </c>
       <c r="AT152">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU152">
         <v>1.49</v>
@@ -30575,7 +30587,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30766,7 +30778,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31339,7 +31351,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31429,7 +31441,7 @@
         <v>2.38</v>
       </c>
       <c r="AT158">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU158">
         <v>1.71</v>
@@ -31530,7 +31542,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31617,7 +31629,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT159">
         <v>1.57</v>
@@ -31999,10 +32011,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT161">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU161">
         <v>1.77</v>
@@ -32103,7 +32115,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32384,7 +32396,7 @@
         <v>2.23</v>
       </c>
       <c r="AT163">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU163">
         <v>1.57</v>
@@ -32572,7 +32584,7 @@
         <v>0.38</v>
       </c>
       <c r="AS164">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT164">
         <v>0.6</v>
@@ -32867,7 +32879,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33249,7 +33261,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33339,7 +33351,7 @@
         <v>2.15</v>
       </c>
       <c r="AT168">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU168">
         <v>1.7</v>
@@ -33530,7 +33542,7 @@
         <v>1.3</v>
       </c>
       <c r="AT169">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU169">
         <v>1.52</v>
@@ -33631,7 +33643,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34013,7 +34025,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34204,7 +34216,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34673,7 +34685,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT175">
         <v>0.3</v>
@@ -34968,7 +34980,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35055,7 +35067,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT177">
         <v>1.15</v>
@@ -35541,7 +35553,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35628,7 +35640,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
         <v>0.7</v>
@@ -35732,7 +35744,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35923,7 +35935,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36010,10 +36022,10 @@
         <v>1.11</v>
       </c>
       <c r="AS182">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT182">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -36395,7 +36407,7 @@
         <v>1.9</v>
       </c>
       <c r="AT184">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU184">
         <v>1.65</v>
@@ -36777,7 +36789,7 @@
         <v>2.23</v>
       </c>
       <c r="AT186">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU186">
         <v>1.57</v>
@@ -36965,7 +36977,7 @@
         <v>0.89</v>
       </c>
       <c r="AS187">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT187">
         <v>0.9</v>
@@ -37156,7 +37168,7 @@
         <v>1.22</v>
       </c>
       <c r="AS188">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT188">
         <v>0.92</v>
@@ -38114,7 +38126,7 @@
         <v>2.43</v>
       </c>
       <c r="AT193">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU193">
         <v>1.66</v>
@@ -38788,7 +38800,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38875,7 +38887,7 @@
         <v>0.89</v>
       </c>
       <c r="AS197">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT197">
         <v>1.1</v>
@@ -38979,7 +38991,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39257,10 +39269,10 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT199">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU199">
         <v>1.68</v>
@@ -39361,7 +39373,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39552,7 +39564,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39639,7 +39651,7 @@
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT201">
         <v>0.7</v>
@@ -39830,7 +39842,7 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT202">
         <v>1.57</v>
@@ -39934,7 +39946,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40021,10 +40033,10 @@
         <v>1.4</v>
       </c>
       <c r="AS203">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT203">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU203">
         <v>1.86</v>
@@ -40125,7 +40137,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40316,7 +40328,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40406,7 +40418,7 @@
         <v>2.38</v>
       </c>
       <c r="AT205">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU205">
         <v>1.64</v>
@@ -41462,7 +41474,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41552,7 +41564,7 @@
         <v>2.08</v>
       </c>
       <c r="AT211">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU211">
         <v>1.78</v>
@@ -41740,7 +41752,7 @@
         <v>0.64</v>
       </c>
       <c r="AS212">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT212">
         <v>0.6899999999999999</v>
@@ -41934,7 +41946,7 @@
         <v>1.93</v>
       </c>
       <c r="AT213">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU213">
         <v>1.47</v>
@@ -42122,7 +42134,7 @@
         <v>0.73</v>
       </c>
       <c r="AS214">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT214">
         <v>0.6899999999999999</v>
@@ -42226,7 +42238,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42417,7 +42429,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42886,10 +42898,10 @@
         <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AT218">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AU218">
         <v>1.65</v>
@@ -43080,7 +43092,7 @@
         <v>2.23</v>
       </c>
       <c r="AT219">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU219">
         <v>1.54</v>
@@ -43181,7 +43193,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43268,7 +43280,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT220">
         <v>1.15</v>
@@ -43563,7 +43575,7 @@
         <v>232</v>
       </c>
       <c r="P222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43945,7 +43957,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q224">
         <v>9</v>
@@ -44417,7 +44429,7 @@
         <v>1.75</v>
       </c>
       <c r="AT226">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AU226">
         <v>1.55</v>
@@ -44518,7 +44530,7 @@
         <v>118</v>
       </c>
       <c r="P227" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44605,7 +44617,7 @@
         <v>1.78</v>
       </c>
       <c r="AS227">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AT227">
         <v>1.75</v>
@@ -44660,6 +44672,961 @@
       </c>
       <c r="BK227">
         <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:63">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>5240289</v>
+      </c>
+      <c r="C228" t="s">
+        <v>63</v>
+      </c>
+      <c r="D228" t="s">
+        <v>64</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45121.75</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>72</v>
+      </c>
+      <c r="H228" t="s">
+        <v>65</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" t="s">
+        <v>90</v>
+      </c>
+      <c r="P228" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q228">
+        <v>4</v>
+      </c>
+      <c r="R228">
+        <v>10</v>
+      </c>
+      <c r="S228">
+        <v>14</v>
+      </c>
+      <c r="T228">
+        <v>2.82</v>
+      </c>
+      <c r="U228">
+        <v>2.04</v>
+      </c>
+      <c r="V228">
+        <v>4.05</v>
+      </c>
+      <c r="W228">
+        <v>1.44</v>
+      </c>
+      <c r="X228">
+        <v>2.6</v>
+      </c>
+      <c r="Y228">
+        <v>3.15</v>
+      </c>
+      <c r="Z228">
+        <v>1.32</v>
+      </c>
+      <c r="AA228">
+        <v>7.9</v>
+      </c>
+      <c r="AB228">
+        <v>1.05</v>
+      </c>
+      <c r="AC228">
+        <v>2.17</v>
+      </c>
+      <c r="AD228">
+        <v>2.95</v>
+      </c>
+      <c r="AE228">
+        <v>3.35</v>
+      </c>
+      <c r="AF228">
+        <v>1.06</v>
+      </c>
+      <c r="AG228">
+        <v>9.5</v>
+      </c>
+      <c r="AH228">
+        <v>1.38</v>
+      </c>
+      <c r="AI228">
+        <v>3</v>
+      </c>
+      <c r="AJ228">
+        <v>2.11</v>
+      </c>
+      <c r="AK228">
+        <v>1.6</v>
+      </c>
+      <c r="AL228">
+        <v>1.9</v>
+      </c>
+      <c r="AM228">
+        <v>1.84</v>
+      </c>
+      <c r="AN228">
+        <v>1.33</v>
+      </c>
+      <c r="AO228">
+        <v>1.33</v>
+      </c>
+      <c r="AP228">
+        <v>1.67</v>
+      </c>
+      <c r="AQ228">
+        <v>1.3</v>
+      </c>
+      <c r="AR228">
+        <v>0.7</v>
+      </c>
+      <c r="AS228">
+        <v>1.18</v>
+      </c>
+      <c r="AT228">
+        <v>0.91</v>
+      </c>
+      <c r="AU228">
+        <v>1.42</v>
+      </c>
+      <c r="AV228">
+        <v>1.23</v>
+      </c>
+      <c r="AW228">
+        <v>2.65</v>
+      </c>
+      <c r="AX228">
+        <v>1.51</v>
+      </c>
+      <c r="AY228">
+        <v>8.5</v>
+      </c>
+      <c r="AZ228">
+        <v>3.07</v>
+      </c>
+      <c r="BA228">
+        <v>1.27</v>
+      </c>
+      <c r="BB228">
+        <v>1.48</v>
+      </c>
+      <c r="BC228">
+        <v>1.93</v>
+      </c>
+      <c r="BD228">
+        <v>2.4</v>
+      </c>
+      <c r="BE228">
+        <v>3.2</v>
+      </c>
+      <c r="BF228">
+        <v>8</v>
+      </c>
+      <c r="BG228">
+        <v>7</v>
+      </c>
+      <c r="BH228">
+        <v>3</v>
+      </c>
+      <c r="BI228">
+        <v>5</v>
+      </c>
+      <c r="BJ228">
+        <v>11</v>
+      </c>
+      <c r="BK228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="229" spans="1:63">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>5240283</v>
+      </c>
+      <c r="C229" t="s">
+        <v>63</v>
+      </c>
+      <c r="D229" t="s">
+        <v>64</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45121.90277777778</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>73</v>
+      </c>
+      <c r="H229" t="s">
+        <v>66</v>
+      </c>
+      <c r="I229">
+        <v>2</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>2</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>236</v>
+      </c>
+      <c r="P229" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q229">
+        <v>7</v>
+      </c>
+      <c r="R229">
+        <v>6</v>
+      </c>
+      <c r="S229">
+        <v>13</v>
+      </c>
+      <c r="T229">
+        <v>2.59</v>
+      </c>
+      <c r="U229">
+        <v>2.09</v>
+      </c>
+      <c r="V229">
+        <v>4.4</v>
+      </c>
+      <c r="W229">
+        <v>1.43</v>
+      </c>
+      <c r="X229">
+        <v>2.71</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
+      </c>
+      <c r="Z229">
+        <v>1.36</v>
+      </c>
+      <c r="AA229">
+        <v>7.8</v>
+      </c>
+      <c r="AB229">
+        <v>1.06</v>
+      </c>
+      <c r="AC229">
+        <v>1.98</v>
+      </c>
+      <c r="AD229">
+        <v>3.15</v>
+      </c>
+      <c r="AE229">
+        <v>3.6</v>
+      </c>
+      <c r="AF229">
+        <v>1.03</v>
+      </c>
+      <c r="AG229">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH229">
+        <v>1.32</v>
+      </c>
+      <c r="AI229">
+        <v>3.04</v>
+      </c>
+      <c r="AJ229">
+        <v>1.99</v>
+      </c>
+      <c r="AK229">
+        <v>1.68</v>
+      </c>
+      <c r="AL229">
+        <v>1.87</v>
+      </c>
+      <c r="AM229">
+        <v>1.87</v>
+      </c>
+      <c r="AN229">
+        <v>1.27</v>
+      </c>
+      <c r="AO229">
+        <v>1.31</v>
+      </c>
+      <c r="AP229">
+        <v>1.8</v>
+      </c>
+      <c r="AQ229">
+        <v>1.2</v>
+      </c>
+      <c r="AR229">
+        <v>0.4</v>
+      </c>
+      <c r="AS229">
+        <v>1.36</v>
+      </c>
+      <c r="AT229">
+        <v>0.36</v>
+      </c>
+      <c r="AU229">
+        <v>1.39</v>
+      </c>
+      <c r="AV229">
+        <v>0.87</v>
+      </c>
+      <c r="AW229">
+        <v>2.26</v>
+      </c>
+      <c r="AX229">
+        <v>1.64</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>2.77</v>
+      </c>
+      <c r="BA229">
+        <v>1.29</v>
+      </c>
+      <c r="BB229">
+        <v>1.54</v>
+      </c>
+      <c r="BC229">
+        <v>2</v>
+      </c>
+      <c r="BD229">
+        <v>2.55</v>
+      </c>
+      <c r="BE229">
+        <v>3.3</v>
+      </c>
+      <c r="BF229">
+        <v>12</v>
+      </c>
+      <c r="BG229">
+        <v>4</v>
+      </c>
+      <c r="BH229">
+        <v>5</v>
+      </c>
+      <c r="BI229">
+        <v>4</v>
+      </c>
+      <c r="BJ229">
+        <v>17</v>
+      </c>
+      <c r="BK229">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:63">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5240290</v>
+      </c>
+      <c r="C230" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>64</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45122.75</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>78</v>
+      </c>
+      <c r="H230" t="s">
+        <v>83</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>2</v>
+      </c>
+      <c r="N230">
+        <v>4</v>
+      </c>
+      <c r="O230" t="s">
+        <v>237</v>
+      </c>
+      <c r="P230" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q230">
+        <v>6</v>
+      </c>
+      <c r="R230">
+        <v>6</v>
+      </c>
+      <c r="S230">
+        <v>12</v>
+      </c>
+      <c r="T230">
+        <v>2.8</v>
+      </c>
+      <c r="U230">
+        <v>2.05</v>
+      </c>
+      <c r="V230">
+        <v>4.33</v>
+      </c>
+      <c r="W230">
+        <v>1.47</v>
+      </c>
+      <c r="X230">
+        <v>2.5</v>
+      </c>
+      <c r="Y230">
+        <v>3.25</v>
+      </c>
+      <c r="Z230">
+        <v>1.3</v>
+      </c>
+      <c r="AA230">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB230">
+        <v>1.04</v>
+      </c>
+      <c r="AC230">
+        <v>1.91</v>
+      </c>
+      <c r="AD230">
+        <v>3.3</v>
+      </c>
+      <c r="AE230">
+        <v>3.9</v>
+      </c>
+      <c r="AF230">
+        <v>1.07</v>
+      </c>
+      <c r="AG230">
+        <v>8.5</v>
+      </c>
+      <c r="AH230">
+        <v>1.42</v>
+      </c>
+      <c r="AI230">
+        <v>2.85</v>
+      </c>
+      <c r="AJ230">
+        <v>2.23</v>
+      </c>
+      <c r="AK230">
+        <v>1.58</v>
+      </c>
+      <c r="AL230">
+        <v>2</v>
+      </c>
+      <c r="AM230">
+        <v>1.8</v>
+      </c>
+      <c r="AN230">
+        <v>1.28</v>
+      </c>
+      <c r="AO230">
+        <v>1.28</v>
+      </c>
+      <c r="AP230">
+        <v>1.78</v>
+      </c>
+      <c r="AQ230">
+        <v>1.54</v>
+      </c>
+      <c r="AR230">
+        <v>0.7</v>
+      </c>
+      <c r="AS230">
+        <v>1.5</v>
+      </c>
+      <c r="AT230">
+        <v>0.73</v>
+      </c>
+      <c r="AU230">
+        <v>1.71</v>
+      </c>
+      <c r="AV230">
+        <v>1.24</v>
+      </c>
+      <c r="AW230">
+        <v>2.95</v>
+      </c>
+      <c r="AX230">
+        <v>1.82</v>
+      </c>
+      <c r="AY230">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230">
+        <v>2.42</v>
+      </c>
+      <c r="BA230">
+        <v>1.36</v>
+      </c>
+      <c r="BB230">
+        <v>1.65</v>
+      </c>
+      <c r="BC230">
+        <v>2.1</v>
+      </c>
+      <c r="BD230">
+        <v>2.8</v>
+      </c>
+      <c r="BE230">
+        <v>3.8</v>
+      </c>
+      <c r="BF230">
+        <v>6</v>
+      </c>
+      <c r="BG230">
+        <v>6</v>
+      </c>
+      <c r="BH230">
+        <v>11</v>
+      </c>
+      <c r="BI230">
+        <v>6</v>
+      </c>
+      <c r="BJ230">
+        <v>17</v>
+      </c>
+      <c r="BK230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:63">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>5240287</v>
+      </c>
+      <c r="C231" t="s">
+        <v>63</v>
+      </c>
+      <c r="D231" t="s">
+        <v>64</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45122.84027777778</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>75</v>
+      </c>
+      <c r="H231" t="s">
+        <v>67</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>85</v>
+      </c>
+      <c r="P231" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q231">
+        <v>3</v>
+      </c>
+      <c r="R231">
+        <v>7</v>
+      </c>
+      <c r="S231">
+        <v>10</v>
+      </c>
+      <c r="T231">
+        <v>2.65</v>
+      </c>
+      <c r="U231">
+        <v>2.02</v>
+      </c>
+      <c r="V231">
+        <v>4.4</v>
+      </c>
+      <c r="W231">
+        <v>1.44</v>
+      </c>
+      <c r="X231">
+        <v>2.7</v>
+      </c>
+      <c r="Y231">
+        <v>3.3</v>
+      </c>
+      <c r="Z231">
+        <v>1.3</v>
+      </c>
+      <c r="AA231">
+        <v>9.5</v>
+      </c>
+      <c r="AB231">
+        <v>1.05</v>
+      </c>
+      <c r="AC231">
+        <v>2</v>
+      </c>
+      <c r="AD231">
+        <v>3.25</v>
+      </c>
+      <c r="AE231">
+        <v>3.8</v>
+      </c>
+      <c r="AF231">
+        <v>1.08</v>
+      </c>
+      <c r="AG231">
+        <v>9</v>
+      </c>
+      <c r="AH231">
+        <v>1.38</v>
+      </c>
+      <c r="AI231">
+        <v>3</v>
+      </c>
+      <c r="AJ231">
+        <v>2.21</v>
+      </c>
+      <c r="AK231">
+        <v>1.59</v>
+      </c>
+      <c r="AL231">
+        <v>1.93</v>
+      </c>
+      <c r="AM231">
+        <v>1.83</v>
+      </c>
+      <c r="AN231">
+        <v>1.26</v>
+      </c>
+      <c r="AO231">
+        <v>1.35</v>
+      </c>
+      <c r="AP231">
+        <v>1.82</v>
+      </c>
+      <c r="AQ231">
+        <v>1.7</v>
+      </c>
+      <c r="AR231">
+        <v>1</v>
+      </c>
+      <c r="AS231">
+        <v>1.55</v>
+      </c>
+      <c r="AT231">
+        <v>1.14</v>
+      </c>
+      <c r="AU231">
+        <v>1.73</v>
+      </c>
+      <c r="AV231">
+        <v>1.46</v>
+      </c>
+      <c r="AW231">
+        <v>3.19</v>
+      </c>
+      <c r="AX231">
+        <v>1.75</v>
+      </c>
+      <c r="AY231">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231">
+        <v>2.45</v>
+      </c>
+      <c r="BA231">
+        <v>1.37</v>
+      </c>
+      <c r="BB231">
+        <v>1.65</v>
+      </c>
+      <c r="BC231">
+        <v>2.13</v>
+      </c>
+      <c r="BD231">
+        <v>2.85</v>
+      </c>
+      <c r="BE231">
+        <v>3</v>
+      </c>
+      <c r="BF231">
+        <v>3</v>
+      </c>
+      <c r="BG231">
+        <v>5</v>
+      </c>
+      <c r="BH231">
+        <v>3</v>
+      </c>
+      <c r="BI231">
+        <v>5</v>
+      </c>
+      <c r="BJ231">
+        <v>6</v>
+      </c>
+      <c r="BK231">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:63">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>5240292</v>
+      </c>
+      <c r="C232" t="s">
+        <v>63</v>
+      </c>
+      <c r="D232" t="s">
+        <v>64</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45122.93055555555</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>79</v>
+      </c>
+      <c r="H232" t="s">
+        <v>84</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232" t="s">
+        <v>85</v>
+      </c>
+      <c r="P232" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q232">
+        <v>4</v>
+      </c>
+      <c r="R232">
+        <v>5</v>
+      </c>
+      <c r="S232">
+        <v>9</v>
+      </c>
+      <c r="T232">
+        <v>3.3</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
+        <v>3.6</v>
+      </c>
+      <c r="W232">
+        <v>1.47</v>
+      </c>
+      <c r="X232">
+        <v>2.5</v>
+      </c>
+      <c r="Y232">
+        <v>3.25</v>
+      </c>
+      <c r="Z232">
+        <v>1.3</v>
+      </c>
+      <c r="AA232">
+        <v>8.9</v>
+      </c>
+      <c r="AB232">
+        <v>1.04</v>
+      </c>
+      <c r="AC232">
+        <v>2.55</v>
+      </c>
+      <c r="AD232">
+        <v>3</v>
+      </c>
+      <c r="AE232">
+        <v>2.8</v>
+      </c>
+      <c r="AF232">
+        <v>1.08</v>
+      </c>
+      <c r="AG232">
+        <v>6.5</v>
+      </c>
+      <c r="AH232">
+        <v>1.4</v>
+      </c>
+      <c r="AI232">
+        <v>2.7</v>
+      </c>
+      <c r="AJ232">
+        <v>2.23</v>
+      </c>
+      <c r="AK232">
+        <v>1.58</v>
+      </c>
+      <c r="AL232">
+        <v>1.9</v>
+      </c>
+      <c r="AM232">
+        <v>1.8</v>
+      </c>
+      <c r="AN232">
+        <v>1.37</v>
+      </c>
+      <c r="AO232">
+        <v>1.37</v>
+      </c>
+      <c r="AP232">
+        <v>1.35</v>
+      </c>
+      <c r="AQ232">
+        <v>1.77</v>
+      </c>
+      <c r="AR232">
+        <v>1.36</v>
+      </c>
+      <c r="AS232">
+        <v>1.71</v>
+      </c>
+      <c r="AT232">
+        <v>1.33</v>
+      </c>
+      <c r="AU232">
+        <v>1.65</v>
+      </c>
+      <c r="AV232">
+        <v>1.03</v>
+      </c>
+      <c r="AW232">
+        <v>2.68</v>
+      </c>
+      <c r="AX232">
+        <v>2.1</v>
+      </c>
+      <c r="AY232">
+        <v>7.5</v>
+      </c>
+      <c r="AZ232">
+        <v>2</v>
+      </c>
+      <c r="BA232">
+        <v>1.35</v>
+      </c>
+      <c r="BB232">
+        <v>1.72</v>
+      </c>
+      <c r="BC232">
+        <v>2.2</v>
+      </c>
+      <c r="BD232">
+        <v>3</v>
+      </c>
+      <c r="BE232">
+        <v>4.1</v>
+      </c>
+      <c r="BF232">
+        <v>3</v>
+      </c>
+      <c r="BG232">
+        <v>6</v>
+      </c>
+      <c r="BH232">
+        <v>7</v>
+      </c>
+      <c r="BI232">
+        <v>3</v>
+      </c>
+      <c r="BJ232">
+        <v>10</v>
+      </c>
+      <c r="BK232">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['32', '88']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -950,6 +953,12 @@
   </si>
   <si>
     <t>['17', '50']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['34', '81']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK232"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2319,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2701,7 +2710,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3083,7 +3092,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3465,7 +3474,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3552,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3847,7 +3856,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3934,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT14">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4316,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT16">
         <v>0.36</v>
@@ -4420,7 +4429,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4507,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT17">
         <v>0.6</v>
@@ -4802,7 +4811,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4892,7 +4901,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU19">
         <v>1.29</v>
@@ -4993,7 +5002,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5757,7 +5766,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -5847,7 +5856,7 @@
         <v>2.15</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU24">
         <v>2.08</v>
@@ -6330,7 +6339,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6712,7 +6721,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6799,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT29">
         <v>1.14</v>
@@ -6903,7 +6912,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6990,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT30">
         <v>0.73</v>
@@ -7285,7 +7294,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7375,7 +7384,7 @@
         <v>1.93</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>1.45</v>
@@ -7476,7 +7485,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7948,7 +7957,7 @@
         <v>1.36</v>
       </c>
       <c r="AT35">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU35">
         <v>2.19</v>
@@ -8240,7 +8249,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8813,7 +8822,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8900,7 +8909,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT40">
         <v>0.7</v>
@@ -9004,7 +9013,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9195,7 +9204,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9285,7 +9294,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU42">
         <v>1.97</v>
@@ -9386,7 +9395,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10237,7 +10246,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT47">
         <v>0.7</v>
@@ -10619,7 +10628,7 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10723,7 +10732,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10813,7 +10822,7 @@
         <v>1.8</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -11487,7 +11496,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11869,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12060,7 +12069,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12723,7 +12732,7 @@
         <v>2.43</v>
       </c>
       <c r="AT60">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>2.02</v>
@@ -12914,7 +12923,7 @@
         <v>1.71</v>
       </c>
       <c r="AT61">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU61">
         <v>1.76</v>
@@ -13015,7 +13024,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13102,10 +13111,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT62">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU62">
         <v>1.61</v>
@@ -13206,7 +13215,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13588,7 +13597,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13779,7 +13788,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14925,7 +14934,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15012,7 +15021,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
         <v>0.92</v>
@@ -15498,7 +15507,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15585,10 +15594,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU75">
         <v>1.63</v>
@@ -16071,7 +16080,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16161,7 +16170,7 @@
         <v>1.71</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16262,7 +16271,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16540,7 +16549,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT80">
         <v>0.6899999999999999</v>
@@ -16644,7 +16653,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17116,7 +17125,7 @@
         <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU83">
         <v>1.63</v>
@@ -17498,7 +17507,7 @@
         <v>1.9</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>2.18</v>
@@ -17790,7 +17799,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18068,7 +18077,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT88">
         <v>1.1</v>
@@ -18450,7 +18459,7 @@
         <v>0.75</v>
       </c>
       <c r="AS90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT90">
         <v>0.9</v>
@@ -18745,7 +18754,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18936,7 +18945,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19127,7 +19136,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19509,7 +19518,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19891,7 +19900,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20082,7 +20091,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20936,7 +20945,7 @@
         <v>1.5</v>
       </c>
       <c r="AT103">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU103">
         <v>1.6</v>
@@ -21127,7 +21136,7 @@
         <v>1.9</v>
       </c>
       <c r="AT104">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU104">
         <v>1.81</v>
@@ -21228,7 +21237,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21506,7 +21515,7 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT106">
         <v>0.3</v>
@@ -21610,7 +21619,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21891,7 +21900,7 @@
         <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU108">
         <v>1.57</v>
@@ -22183,7 +22192,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22461,7 +22470,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT111">
         <v>0.36</v>
@@ -23225,7 +23234,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT115">
         <v>0.91</v>
@@ -23329,7 +23338,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23711,7 +23720,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24284,7 +24293,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24371,7 +24380,7 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT121">
         <v>1.14</v>
@@ -24475,7 +24484,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24756,7 +24765,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU123">
         <v>1.64</v>
@@ -24857,7 +24866,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24947,7 +24956,7 @@
         <v>1.18</v>
       </c>
       <c r="AT124">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU124">
         <v>1.39</v>
@@ -25812,7 +25821,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25899,7 +25908,7 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
         <v>0.7</v>
@@ -26003,7 +26012,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26194,7 +26203,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26576,7 +26585,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26767,7 +26776,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26854,7 +26863,7 @@
         <v>0.4</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
         <v>0.6899999999999999</v>
@@ -26958,7 +26967,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27722,7 +27731,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27812,7 +27821,7 @@
         <v>2.38</v>
       </c>
       <c r="AT139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU139">
         <v>1.78</v>
@@ -28385,7 +28394,7 @@
         <v>1.18</v>
       </c>
       <c r="AT142">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28767,7 +28776,7 @@
         <v>2.23</v>
       </c>
       <c r="AT144">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU144">
         <v>1.67</v>
@@ -28955,7 +28964,7 @@
         <v>1.14</v>
       </c>
       <c r="AS145">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT145">
         <v>0.9</v>
@@ -29059,7 +29068,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29441,7 +29450,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29632,7 +29641,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29719,7 +29728,7 @@
         <v>0.83</v>
       </c>
       <c r="AS149">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT149">
         <v>0.6899999999999999</v>
@@ -30014,7 +30023,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30483,7 +30492,7 @@
         <v>0.83</v>
       </c>
       <c r="AS153">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT153">
         <v>0.7</v>
@@ -30587,7 +30596,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30778,7 +30787,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31059,7 +31068,7 @@
         <v>1.9</v>
       </c>
       <c r="AT156">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU156">
         <v>1.89</v>
@@ -31351,7 +31360,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31542,7 +31551,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31632,7 +31641,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU159">
         <v>1.57</v>
@@ -32115,7 +32124,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32202,10 +32211,10 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU162">
         <v>1.87</v>
@@ -32879,7 +32888,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33261,7 +33270,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33643,7 +33652,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33921,7 +33930,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT171">
         <v>1.1</v>
@@ -34025,7 +34034,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34112,7 +34121,7 @@
         <v>1.22</v>
       </c>
       <c r="AS172">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT172">
         <v>0.85</v>
@@ -34216,7 +34225,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34980,7 +34989,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35553,7 +35562,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35744,7 +35753,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35834,7 +35843,7 @@
         <v>1.9</v>
       </c>
       <c r="AT181">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU181">
         <v>1.89</v>
@@ -35935,7 +35944,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36216,7 +36225,7 @@
         <v>1.6</v>
       </c>
       <c r="AT183">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU183">
         <v>1.61</v>
@@ -36598,7 +36607,7 @@
         <v>1.5</v>
       </c>
       <c r="AT185">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU185">
         <v>1.48</v>
@@ -37359,7 +37368,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT189">
         <v>0.7</v>
@@ -37553,7 +37562,7 @@
         <v>2.38</v>
       </c>
       <c r="AT190">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU190">
         <v>1.69</v>
@@ -38505,7 +38514,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT195">
         <v>0.7</v>
@@ -38800,7 +38809,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38991,7 +39000,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39081,7 +39090,7 @@
         <v>1.8</v>
       </c>
       <c r="AT198">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU198">
         <v>1.9</v>
@@ -39373,7 +39382,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39460,7 +39469,7 @@
         <v>0.67</v>
       </c>
       <c r="AS200">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT200">
         <v>0.6899999999999999</v>
@@ -39564,7 +39573,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39845,7 +39854,7 @@
         <v>1.71</v>
       </c>
       <c r="AT202">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU202">
         <v>1.56</v>
@@ -39946,7 +39955,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40137,7 +40146,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40328,7 +40337,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -41179,7 +41188,7 @@
         <v>1.1</v>
       </c>
       <c r="AS209">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT209">
         <v>0.85</v>
@@ -41474,7 +41483,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41561,7 +41570,7 @@
         <v>1.36</v>
       </c>
       <c r="AS211">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT211">
         <v>1.33</v>
@@ -42238,7 +42247,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42429,7 +42438,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42519,7 +42528,7 @@
         <v>2.15</v>
       </c>
       <c r="AT216">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU216">
         <v>1.72</v>
@@ -43193,7 +43202,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43474,7 +43483,7 @@
         <v>2.38</v>
       </c>
       <c r="AT221">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU221">
         <v>1.73</v>
@@ -43575,7 +43584,7 @@
         <v>232</v>
       </c>
       <c r="P222" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43662,7 +43671,7 @@
         <v>0.75</v>
       </c>
       <c r="AS222">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AT222">
         <v>0.6899999999999999</v>
@@ -43957,7 +43966,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q224">
         <v>9</v>
@@ -44426,7 +44435,7 @@
         <v>1.96</v>
       </c>
       <c r="AS226">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT226">
         <v>1.86</v>
@@ -44530,7 +44539,7 @@
         <v>118</v>
       </c>
       <c r="P227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44620,7 +44629,7 @@
         <v>1.86</v>
       </c>
       <c r="AT227">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU227">
         <v>1.65</v>
@@ -44721,7 +44730,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45103,7 +45112,7 @@
         <v>237</v>
       </c>
       <c r="P230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45627,6 +45636,579 @@
       </c>
       <c r="BK232">
         <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:63">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>5240286</v>
+      </c>
+      <c r="C233" t="s">
+        <v>63</v>
+      </c>
+      <c r="D233" t="s">
+        <v>64</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45123.80208333334</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
+        <v>77</v>
+      </c>
+      <c r="H233" t="s">
+        <v>69</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>1</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>1</v>
+      </c>
+      <c r="O233" t="s">
+        <v>238</v>
+      </c>
+      <c r="P233" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q233">
+        <v>7</v>
+      </c>
+      <c r="R233">
+        <v>10</v>
+      </c>
+      <c r="S233">
+        <v>17</v>
+      </c>
+      <c r="T233">
+        <v>2.65</v>
+      </c>
+      <c r="U233">
+        <v>2.16</v>
+      </c>
+      <c r="V233">
+        <v>4.74</v>
+      </c>
+      <c r="W233">
+        <v>1.45</v>
+      </c>
+      <c r="X233">
+        <v>2.77</v>
+      </c>
+      <c r="Y233">
+        <v>3.27</v>
+      </c>
+      <c r="Z233">
+        <v>1.35</v>
+      </c>
+      <c r="AA233">
+        <v>7.9</v>
+      </c>
+      <c r="AB233">
+        <v>1.06</v>
+      </c>
+      <c r="AC233">
+        <v>1.85</v>
+      </c>
+      <c r="AD233">
+        <v>3.4</v>
+      </c>
+      <c r="AE233">
+        <v>4.1</v>
+      </c>
+      <c r="AF233">
+        <v>1.03</v>
+      </c>
+      <c r="AG233">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH233">
+        <v>1.33</v>
+      </c>
+      <c r="AI233">
+        <v>2.97</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>1.7</v>
+      </c>
+      <c r="AL233">
+        <v>1.87</v>
+      </c>
+      <c r="AM233">
+        <v>1.89</v>
+      </c>
+      <c r="AN233">
+        <v>1.21</v>
+      </c>
+      <c r="AO233">
+        <v>1.28</v>
+      </c>
+      <c r="AP233">
+        <v>1.63</v>
+      </c>
+      <c r="AQ233">
+        <v>2.08</v>
+      </c>
+      <c r="AR233">
+        <v>0.6</v>
+      </c>
+      <c r="AS233">
+        <v>2.14</v>
+      </c>
+      <c r="AT233">
+        <v>0.55</v>
+      </c>
+      <c r="AU233">
+        <v>1.73</v>
+      </c>
+      <c r="AV233">
+        <v>1.33</v>
+      </c>
+      <c r="AW233">
+        <v>3.06</v>
+      </c>
+      <c r="AX233">
+        <v>1.45</v>
+      </c>
+      <c r="AY233">
+        <v>8.5</v>
+      </c>
+      <c r="AZ233">
+        <v>3.46</v>
+      </c>
+      <c r="BA233">
+        <v>1.3</v>
+      </c>
+      <c r="BB233">
+        <v>1.57</v>
+      </c>
+      <c r="BC233">
+        <v>1.98</v>
+      </c>
+      <c r="BD233">
+        <v>2.58</v>
+      </c>
+      <c r="BE233">
+        <v>3.48</v>
+      </c>
+      <c r="BF233">
+        <v>6</v>
+      </c>
+      <c r="BG233">
+        <v>3</v>
+      </c>
+      <c r="BH233">
+        <v>9</v>
+      </c>
+      <c r="BI233">
+        <v>5</v>
+      </c>
+      <c r="BJ233">
+        <v>15</v>
+      </c>
+      <c r="BK233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:63">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>5240288</v>
+      </c>
+      <c r="C234" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" t="s">
+        <v>64</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45123.89583333334</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>76</v>
+      </c>
+      <c r="H234" t="s">
+        <v>70</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>119</v>
+      </c>
+      <c r="P234" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q234">
+        <v>9</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>11</v>
+      </c>
+      <c r="T234">
+        <v>3.2</v>
+      </c>
+      <c r="U234">
+        <v>2</v>
+      </c>
+      <c r="V234">
+        <v>3.2</v>
+      </c>
+      <c r="W234">
+        <v>1.47</v>
+      </c>
+      <c r="X234">
+        <v>2.5</v>
+      </c>
+      <c r="Y234">
+        <v>3.3</v>
+      </c>
+      <c r="Z234">
+        <v>1.28</v>
+      </c>
+      <c r="AA234">
+        <v>7.5</v>
+      </c>
+      <c r="AB234">
+        <v>1.06</v>
+      </c>
+      <c r="AC234">
+        <v>2.5</v>
+      </c>
+      <c r="AD234">
+        <v>3.25</v>
+      </c>
+      <c r="AE234">
+        <v>2.7</v>
+      </c>
+      <c r="AF234">
+        <v>1.08</v>
+      </c>
+      <c r="AG234">
+        <v>6.5</v>
+      </c>
+      <c r="AH234">
+        <v>1.4</v>
+      </c>
+      <c r="AI234">
+        <v>2.7</v>
+      </c>
+      <c r="AJ234">
+        <v>2.25</v>
+      </c>
+      <c r="AK234">
+        <v>1.57</v>
+      </c>
+      <c r="AL234">
+        <v>1.95</v>
+      </c>
+      <c r="AM234">
+        <v>1.8</v>
+      </c>
+      <c r="AN234">
+        <v>1.45</v>
+      </c>
+      <c r="AO234">
+        <v>1.36</v>
+      </c>
+      <c r="AP234">
+        <v>1.48</v>
+      </c>
+      <c r="AQ234">
+        <v>1.3</v>
+      </c>
+      <c r="AR234">
+        <v>1.57</v>
+      </c>
+      <c r="AS234">
+        <v>1.27</v>
+      </c>
+      <c r="AT234">
+        <v>1.53</v>
+      </c>
+      <c r="AU234">
+        <v>1.64</v>
+      </c>
+      <c r="AV234">
+        <v>1.37</v>
+      </c>
+      <c r="AW234">
+        <v>3.01</v>
+      </c>
+      <c r="AX234">
+        <v>1.71</v>
+      </c>
+      <c r="AY234">
+        <v>7.6</v>
+      </c>
+      <c r="AZ234">
+        <v>2.65</v>
+      </c>
+      <c r="BA234">
+        <v>1.22</v>
+      </c>
+      <c r="BB234">
+        <v>1.51</v>
+      </c>
+      <c r="BC234">
+        <v>1.82</v>
+      </c>
+      <c r="BD234">
+        <v>2.24</v>
+      </c>
+      <c r="BE234">
+        <v>3.04</v>
+      </c>
+      <c r="BF234">
+        <v>2</v>
+      </c>
+      <c r="BG234">
+        <v>5</v>
+      </c>
+      <c r="BH234">
+        <v>8</v>
+      </c>
+      <c r="BI234">
+        <v>6</v>
+      </c>
+      <c r="BJ234">
+        <v>10</v>
+      </c>
+      <c r="BK234">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:63">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>5240291</v>
+      </c>
+      <c r="C235" t="s">
+        <v>63</v>
+      </c>
+      <c r="D235" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45124.91666666666</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235" t="s">
+        <v>74</v>
+      </c>
+      <c r="H235" t="s">
+        <v>80</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>85</v>
+      </c>
+      <c r="P235" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q235">
+        <v>7</v>
+      </c>
+      <c r="R235">
+        <v>4</v>
+      </c>
+      <c r="S235">
+        <v>11</v>
+      </c>
+      <c r="T235">
+        <v>2.85</v>
+      </c>
+      <c r="U235">
+        <v>2.07</v>
+      </c>
+      <c r="V235">
+        <v>3.85</v>
+      </c>
+      <c r="W235">
+        <v>1.38</v>
+      </c>
+      <c r="X235">
+        <v>2.8</v>
+      </c>
+      <c r="Y235">
+        <v>3.05</v>
+      </c>
+      <c r="Z235">
+        <v>1.34</v>
+      </c>
+      <c r="AA235">
+        <v>8.5</v>
+      </c>
+      <c r="AB235">
+        <v>1.07</v>
+      </c>
+      <c r="AC235">
+        <v>2.15</v>
+      </c>
+      <c r="AD235">
+        <v>3.4</v>
+      </c>
+      <c r="AE235">
+        <v>3.35</v>
+      </c>
+      <c r="AF235">
+        <v>1.06</v>
+      </c>
+      <c r="AG235">
+        <v>9.5</v>
+      </c>
+      <c r="AH235">
+        <v>1.32</v>
+      </c>
+      <c r="AI235">
+        <v>3.4</v>
+      </c>
+      <c r="AJ235">
+        <v>2.05</v>
+      </c>
+      <c r="AK235">
+        <v>1.61</v>
+      </c>
+      <c r="AL235">
+        <v>1.77</v>
+      </c>
+      <c r="AM235">
+        <v>2</v>
+      </c>
+      <c r="AN235">
+        <v>1.34</v>
+      </c>
+      <c r="AO235">
+        <v>1.35</v>
+      </c>
+      <c r="AP235">
+        <v>1.67</v>
+      </c>
+      <c r="AQ235">
+        <v>1.6</v>
+      </c>
+      <c r="AR235">
+        <v>0.8</v>
+      </c>
+      <c r="AS235">
+        <v>1.45</v>
+      </c>
+      <c r="AT235">
+        <v>1</v>
+      </c>
+      <c r="AU235">
+        <v>1.61</v>
+      </c>
+      <c r="AV235">
+        <v>1.39</v>
+      </c>
+      <c r="AW235">
+        <v>3</v>
+      </c>
+      <c r="AX235">
+        <v>1.91</v>
+      </c>
+      <c r="AY235">
+        <v>8.5</v>
+      </c>
+      <c r="AZ235">
+        <v>2.21</v>
+      </c>
+      <c r="BA235">
+        <v>1.36</v>
+      </c>
+      <c r="BB235">
+        <v>1.7</v>
+      </c>
+      <c r="BC235">
+        <v>2.11</v>
+      </c>
+      <c r="BD235">
+        <v>2.52</v>
+      </c>
+      <c r="BE235">
+        <v>3.9</v>
+      </c>
+      <c r="BF235">
+        <v>3</v>
+      </c>
+      <c r="BG235">
+        <v>3</v>
+      </c>
+      <c r="BH235">
+        <v>6</v>
+      </c>
+      <c r="BI235">
+        <v>2</v>
+      </c>
+      <c r="BJ235">
+        <v>9</v>
+      </c>
+      <c r="BK235">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="315">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -866,9 +869,6 @@
   </si>
   <si>
     <t>['12', '17']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['27', '31', '49']</t>
@@ -1320,7 +1320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2328,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2710,7 +2710,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3092,7 +3092,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3474,7 +3474,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3856,7 +3856,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4137,7 +4137,7 @@
         <v>2.23</v>
       </c>
       <c r="AT15">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU15">
         <v>1.91</v>
@@ -4429,7 +4429,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4811,7 +4811,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5002,7 +5002,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5766,7 +5766,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6339,7 +6339,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6721,7 +6721,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6912,7 +6912,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7294,7 +7294,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7485,7 +7485,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7572,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>0.92</v>
@@ -8249,7 +8249,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8530,7 +8530,7 @@
         <v>2.43</v>
       </c>
       <c r="AT38">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9013,7 +9013,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9204,7 +9204,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9395,7 +9395,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10437,7 +10437,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT48">
         <v>0.36</v>
@@ -10732,7 +10732,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11496,7 +11496,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11878,7 +11878,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12069,7 +12069,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12350,7 +12350,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -13024,7 +13024,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13215,7 +13215,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13597,7 +13597,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13788,7 +13788,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14934,7 +14934,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15403,7 +15403,7 @@
         <v>2</v>
       </c>
       <c r="AS74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.15</v>
@@ -15507,7 +15507,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -16080,7 +16080,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16271,7 +16271,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16653,7 +16653,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16934,7 +16934,7 @@
         <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU82">
         <v>1.76</v>
@@ -17504,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>1</v>
@@ -17799,7 +17799,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18754,7 +18754,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18945,7 +18945,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19136,7 +19136,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19518,7 +19518,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19605,7 +19605,7 @@
         <v>1.33</v>
       </c>
       <c r="AS96">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19900,7 +19900,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20091,7 +20091,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20560,7 +20560,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT101">
         <v>0.6899999999999999</v>
@@ -21237,7 +21237,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21518,7 +21518,7 @@
         <v>2.14</v>
       </c>
       <c r="AT106">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU106">
         <v>1.92</v>
@@ -21619,7 +21619,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22192,7 +22192,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -23338,7 +23338,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23720,7 +23720,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24293,7 +24293,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24484,7 +24484,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24866,7 +24866,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25529,7 +25529,7 @@
         <v>2.38</v>
       </c>
       <c r="AT127">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU127">
         <v>1.85</v>
@@ -25821,7 +25821,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26012,7 +26012,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26203,7 +26203,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26585,7 +26585,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26776,7 +26776,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -28012,7 +28012,7 @@
         <v>1.55</v>
       </c>
       <c r="AT140">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU140">
         <v>1.78</v>
@@ -28200,7 +28200,7 @@
         <v>0.86</v>
       </c>
       <c r="AS141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.91</v>
@@ -29641,7 +29641,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29922,7 +29922,7 @@
         <v>1.8</v>
       </c>
       <c r="AT150">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU150">
         <v>1.94</v>
@@ -31065,7 +31065,7 @@
         <v>0.63</v>
       </c>
       <c r="AS156">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT156">
         <v>0.55</v>
@@ -31360,7 +31360,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -33270,7 +33270,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33652,7 +33652,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34034,7 +34034,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34697,7 +34697,7 @@
         <v>1.71</v>
       </c>
       <c r="AT175">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -35840,7 +35840,7 @@
         <v>1.71</v>
       </c>
       <c r="AS181">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT181">
         <v>1.53</v>
@@ -37750,7 +37750,7 @@
         <v>0.67</v>
       </c>
       <c r="AS191">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT191">
         <v>0.6</v>
@@ -38708,7 +38708,7 @@
         <v>2.15</v>
       </c>
       <c r="AT196">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU196">
         <v>1.69</v>
@@ -39382,7 +39382,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39573,7 +39573,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -46209,6 +46209,197 @@
       </c>
       <c r="BK235">
         <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:63">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>5240285</v>
+      </c>
+      <c r="C236" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45126.91666666666</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>82</v>
+      </c>
+      <c r="H236" t="s">
+        <v>71</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>1</v>
+      </c>
+      <c r="O236" t="s">
+        <v>239</v>
+      </c>
+      <c r="P236" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>3</v>
+      </c>
+      <c r="S236">
+        <v>8</v>
+      </c>
+      <c r="T236">
+        <v>2.15</v>
+      </c>
+      <c r="U236">
+        <v>2.2</v>
+      </c>
+      <c r="V236">
+        <v>5.5</v>
+      </c>
+      <c r="W236">
+        <v>1.39</v>
+      </c>
+      <c r="X236">
+        <v>2.75</v>
+      </c>
+      <c r="Y236">
+        <v>2.95</v>
+      </c>
+      <c r="Z236">
+        <v>1.35</v>
+      </c>
+      <c r="AA236">
+        <v>7.4</v>
+      </c>
+      <c r="AB236">
+        <v>1.06</v>
+      </c>
+      <c r="AC236">
+        <v>1.56</v>
+      </c>
+      <c r="AD236">
+        <v>3.5</v>
+      </c>
+      <c r="AE236">
+        <v>5.17</v>
+      </c>
+      <c r="AF236">
+        <v>1.05</v>
+      </c>
+      <c r="AG236">
+        <v>10</v>
+      </c>
+      <c r="AH236">
+        <v>1.33</v>
+      </c>
+      <c r="AI236">
+        <v>3.25</v>
+      </c>
+      <c r="AJ236">
+        <v>1.96</v>
+      </c>
+      <c r="AK236">
+        <v>1.75</v>
+      </c>
+      <c r="AL236">
+        <v>2</v>
+      </c>
+      <c r="AM236">
+        <v>1.78</v>
+      </c>
+      <c r="AN236">
+        <v>1.17</v>
+      </c>
+      <c r="AO236">
+        <v>1.29</v>
+      </c>
+      <c r="AP236">
+        <v>2.2</v>
+      </c>
+      <c r="AQ236">
+        <v>1.9</v>
+      </c>
+      <c r="AR236">
+        <v>0.3</v>
+      </c>
+      <c r="AS236">
+        <v>2</v>
+      </c>
+      <c r="AT236">
+        <v>0.27</v>
+      </c>
+      <c r="AU236">
+        <v>1.89</v>
+      </c>
+      <c r="AV236">
+        <v>0.97</v>
+      </c>
+      <c r="AW236">
+        <v>2.86</v>
+      </c>
+      <c r="AX236">
+        <v>1.29</v>
+      </c>
+      <c r="AY236">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ236">
+        <v>4.97</v>
+      </c>
+      <c r="BA236">
+        <v>1.31</v>
+      </c>
+      <c r="BB236">
+        <v>1.54</v>
+      </c>
+      <c r="BC236">
+        <v>2</v>
+      </c>
+      <c r="BD236">
+        <v>2.44</v>
+      </c>
+      <c r="BE236">
+        <v>3.3</v>
+      </c>
+      <c r="BF236">
+        <v>3</v>
+      </c>
+      <c r="BG236">
+        <v>0</v>
+      </c>
+      <c r="BH236">
+        <v>8</v>
+      </c>
+      <c r="BI236">
+        <v>7</v>
+      </c>
+      <c r="BJ236">
+        <v>11</v>
+      </c>
+      <c r="BK236">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,12 @@
     <t>['90+5']</t>
   </si>
   <si>
+    <t>['6', '9', '73']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -851,9 +857,6 @@
   </si>
   <si>
     <t>['12', '24', '49']</t>
-  </si>
-  <si>
-    <t>['41']</t>
   </si>
   <si>
     <t>['41', '45+1']</t>
@@ -1320,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK236"/>
+  <dimension ref="A1:BK242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT2">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1845,7 +1848,7 @@
         <v>1.5</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2036,7 +2039,7 @@
         <v>2.15</v>
       </c>
       <c r="AT4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2227,7 +2230,7 @@
         <v>2.23</v>
       </c>
       <c r="AT5">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2328,7 +2331,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2415,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT6">
         <v>1.15</v>
@@ -2609,7 +2612,7 @@
         <v>1.93</v>
       </c>
       <c r="AT7">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2710,7 +2713,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -3092,7 +3095,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3474,7 +3477,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3856,7 +3859,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4429,7 +4432,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4519,7 +4522,7 @@
         <v>1.45</v>
       </c>
       <c r="AT17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU17">
         <v>2.06</v>
@@ -4707,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT18">
         <v>0.7</v>
@@ -4811,7 +4814,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5002,7 +5005,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5089,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
         <v>1.15</v>
@@ -5283,7 +5286,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5471,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT22">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.95</v>
@@ -5665,7 +5668,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU23">
         <v>1.29</v>
@@ -5766,7 +5769,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6238,7 +6241,7 @@
         <v>2.38</v>
       </c>
       <c r="AT26">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6339,7 +6342,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6721,7 +6724,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6912,7 +6915,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7193,7 +7196,7 @@
         <v>2.23</v>
       </c>
       <c r="AT31">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU31">
         <v>1.86</v>
@@ -7294,7 +7297,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7485,7 +7488,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7763,7 +7766,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
         <v>0.85</v>
@@ -8148,7 +8151,7 @@
         <v>1.18</v>
       </c>
       <c r="AT36">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU36">
         <v>1.59</v>
@@ -8249,7 +8252,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8336,7 +8339,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1.15</v>
@@ -8527,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT38">
         <v>0.27</v>
@@ -8718,10 +8721,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.47</v>
@@ -8822,7 +8825,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8912,7 +8915,7 @@
         <v>1.45</v>
       </c>
       <c r="AT40">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU40">
         <v>1.58</v>
@@ -9013,7 +9016,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9100,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT41">
         <v>0.7</v>
@@ -9204,7 +9207,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9291,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT42">
         <v>1.53</v>
@@ -9395,7 +9398,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10058,7 +10061,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU46">
         <v>1.65</v>
@@ -10249,7 +10252,7 @@
         <v>2.14</v>
       </c>
       <c r="AT47">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU47">
         <v>2.24</v>
@@ -10732,7 +10735,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10819,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -11204,7 +11207,7 @@
         <v>1.93</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU52">
         <v>1.38</v>
@@ -11496,7 +11499,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11586,7 +11589,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11774,10 +11777,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55">
         <v>1.71</v>
@@ -11878,7 +11881,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -11965,10 +11968,10 @@
         <v>0.5</v>
       </c>
       <c r="AS56">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT56">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU56">
         <v>1.2</v>
@@ -12069,7 +12072,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12538,7 +12541,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT59">
         <v>1.14</v>
@@ -12729,7 +12732,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -12920,7 +12923,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
         <v>1.53</v>
@@ -13024,7 +13027,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13215,7 +13218,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13597,7 +13600,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13687,7 +13690,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13788,7 +13791,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14451,7 +14454,7 @@
         <v>2.15</v>
       </c>
       <c r="AT69">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14642,7 +14645,7 @@
         <v>1.55</v>
       </c>
       <c r="AT70">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU70">
         <v>2.31</v>
@@ -14934,7 +14937,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15212,7 +15215,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT73">
         <v>0.73</v>
@@ -15507,7 +15510,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15976,7 +15979,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT77">
         <v>0.36</v>
@@ -16080,7 +16083,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16167,7 +16170,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
         <v>1</v>
@@ -16271,7 +16274,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16552,7 +16555,7 @@
         <v>2.14</v>
       </c>
       <c r="AT80">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU80">
         <v>1.8</v>
@@ -16653,7 +16656,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16740,7 +16743,7 @@
         <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT81">
         <v>1.14</v>
@@ -16931,7 +16934,7 @@
         <v>0.33</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT82">
         <v>0.27</v>
@@ -17122,7 +17125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT83">
         <v>0.55</v>
@@ -17316,7 +17319,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17695,7 +17698,7 @@
         <v>1.75</v>
       </c>
       <c r="AS86">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT86">
         <v>0.92</v>
@@ -17799,7 +17802,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17886,7 +17889,7 @@
         <v>1.5</v>
       </c>
       <c r="AS87">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT87">
         <v>0.6899999999999999</v>
@@ -18080,7 +18083,7 @@
         <v>2.14</v>
       </c>
       <c r="AT88">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.88</v>
@@ -18271,7 +18274,7 @@
         <v>2.15</v>
       </c>
       <c r="AT89">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.85</v>
@@ -18462,7 +18465,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.59</v>
@@ -18754,7 +18757,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18945,7 +18948,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19032,10 +19035,10 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT93">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU93">
         <v>1.76</v>
@@ -19136,7 +19139,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19226,7 +19229,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.45</v>
@@ -19518,7 +19521,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19900,7 +19903,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20091,7 +20094,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20178,7 +20181,7 @@
         <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT99">
         <v>1.33</v>
@@ -20369,10 +20372,10 @@
         <v>0.8</v>
       </c>
       <c r="AS100">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU100">
         <v>1.61</v>
@@ -20754,7 +20757,7 @@
         <v>1.18</v>
       </c>
       <c r="AT102">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU102">
         <v>1.47</v>
@@ -20942,7 +20945,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT103">
         <v>0.55</v>
@@ -21133,7 +21136,7 @@
         <v>1.75</v>
       </c>
       <c r="AS104">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT104">
         <v>1.53</v>
@@ -21237,7 +21240,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21324,7 +21327,7 @@
         <v>1.6</v>
       </c>
       <c r="AS105">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21619,7 +21622,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22091,7 +22094,7 @@
         <v>1.55</v>
       </c>
       <c r="AT109">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU109">
         <v>1.86</v>
@@ -22192,7 +22195,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22282,7 +22285,7 @@
         <v>2.15</v>
       </c>
       <c r="AT110">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU110">
         <v>1.72</v>
@@ -22664,7 +22667,7 @@
         <v>1.6</v>
       </c>
       <c r="AT112">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU112">
         <v>1.64</v>
@@ -23043,7 +23046,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT114">
         <v>0.85</v>
@@ -23338,7 +23341,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23619,7 +23622,7 @@
         <v>1.93</v>
       </c>
       <c r="AT117">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>1.52</v>
@@ -23720,7 +23723,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23807,7 +23810,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT118">
         <v>0.92</v>
@@ -23998,10 +24001,10 @@
         <v>0.83</v>
       </c>
       <c r="AS119">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU119">
         <v>1.59</v>
@@ -24293,7 +24296,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24484,7 +24487,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24574,7 +24577,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU122">
         <v>1.35</v>
@@ -24762,7 +24765,7 @@
         <v>0.67</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT123">
         <v>1</v>
@@ -24866,7 +24869,7 @@
         <v>169</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25144,7 +25147,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
         <v>0.91</v>
@@ -25821,7 +25824,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26012,7 +26015,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26099,7 +26102,7 @@
         <v>0.71</v>
       </c>
       <c r="AS130">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT130">
         <v>0.85</v>
@@ -26203,7 +26206,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26290,10 +26293,10 @@
         <v>0.83</v>
       </c>
       <c r="AS131">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT131">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.89</v>
@@ -26585,7 +26588,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26776,7 +26779,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26866,7 +26869,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU134">
         <v>1.59</v>
@@ -27436,7 +27439,7 @@
         <v>1.29</v>
       </c>
       <c r="AS137">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT137">
         <v>1.14</v>
@@ -27627,10 +27630,10 @@
         <v>0.43</v>
       </c>
       <c r="AS138">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT138">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU138">
         <v>1.63</v>
@@ -27731,7 +27734,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -28967,7 +28970,7 @@
         <v>2.14</v>
       </c>
       <c r="AT145">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU145">
         <v>1.86</v>
@@ -29068,7 +29071,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29155,10 +29158,10 @@
         <v>0.83</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT146">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU146">
         <v>1.48</v>
@@ -29346,7 +29349,7 @@
         <v>0.57</v>
       </c>
       <c r="AS147">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT147">
         <v>0.73</v>
@@ -29450,7 +29453,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29641,7 +29644,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="Q149">
         <v>11</v>
@@ -29919,7 +29922,7 @@
         <v>0.29</v>
       </c>
       <c r="AS150">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT150">
         <v>0.27</v>
@@ -30023,7 +30026,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30495,7 +30498,7 @@
         <v>1.45</v>
       </c>
       <c r="AT153">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU153">
         <v>1.63</v>
@@ -30596,7 +30599,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30686,7 +30689,7 @@
         <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU154">
         <v>1.82</v>
@@ -30787,7 +30790,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -30874,7 +30877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS155">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT155">
         <v>1.15</v>
@@ -31360,7 +31363,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31551,7 +31554,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31638,7 +31641,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT159">
         <v>1.53</v>
@@ -31829,10 +31832,10 @@
         <v>1</v>
       </c>
       <c r="AS160">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT160">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU160">
         <v>1.64</v>
@@ -32124,7 +32127,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32596,7 +32599,7 @@
         <v>1.18</v>
       </c>
       <c r="AT164">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU164">
         <v>1.38</v>
@@ -32787,7 +32790,7 @@
         <v>1.6</v>
       </c>
       <c r="AT165">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU165">
         <v>1.63</v>
@@ -32888,7 +32891,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -32975,10 +32978,10 @@
         <v>0.86</v>
       </c>
       <c r="AS166">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT166">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU166">
         <v>1.65</v>
@@ -33270,7 +33273,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33548,7 +33551,7 @@
         <v>0.5</v>
       </c>
       <c r="AS169">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT169">
         <v>0.36</v>
@@ -33652,7 +33655,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33739,10 +33742,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT170">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU170">
         <v>1.89</v>
@@ -33933,7 +33936,7 @@
         <v>1.27</v>
       </c>
       <c r="AT171">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU171">
         <v>1.59</v>
@@ -34034,7 +34037,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34225,7 +34228,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34503,7 +34506,7 @@
         <v>0.88</v>
       </c>
       <c r="AS174">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT174">
         <v>0.7</v>
@@ -34694,7 +34697,7 @@
         <v>0.38</v>
       </c>
       <c r="AS175">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
         <v>0.27</v>
@@ -34888,7 +34891,7 @@
         <v>1.5</v>
       </c>
       <c r="AT176">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU176">
         <v>1.78</v>
@@ -34989,7 +34992,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35458,10 +35461,10 @@
         <v>0.75</v>
       </c>
       <c r="AS179">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT179">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU179">
         <v>1.59</v>
@@ -35562,7 +35565,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35649,10 +35652,10 @@
         <v>0.63</v>
       </c>
       <c r="AS180">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT180">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU180">
         <v>1.57</v>
@@ -35753,7 +35756,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35944,7 +35947,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36413,7 +36416,7 @@
         <v>0.78</v>
       </c>
       <c r="AS184">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT184">
         <v>0.91</v>
@@ -36989,7 +36992,7 @@
         <v>1.55</v>
       </c>
       <c r="AT187">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU187">
         <v>1.73</v>
@@ -37177,7 +37180,7 @@
         <v>1.22</v>
       </c>
       <c r="AS188">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT188">
         <v>0.92</v>
@@ -37371,7 +37374,7 @@
         <v>2.14</v>
       </c>
       <c r="AT189">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU189">
         <v>1.78</v>
@@ -37753,7 +37756,7 @@
         <v>2</v>
       </c>
       <c r="AT191">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU191">
         <v>1.9</v>
@@ -37941,7 +37944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS192">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT192">
         <v>1.15</v>
@@ -38132,7 +38135,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT193">
         <v>0.73</v>
@@ -38809,7 +38812,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>1.36</v>
       </c>
       <c r="AT197">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU197">
         <v>1.36</v>
@@ -39000,7 +39003,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39087,7 +39090,7 @@
         <v>1.67</v>
       </c>
       <c r="AS198">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT198">
         <v>1.53</v>
@@ -39278,7 +39281,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT199">
         <v>0.36</v>
@@ -39382,7 +39385,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39472,7 +39475,7 @@
         <v>1.45</v>
       </c>
       <c r="AT200">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU200">
         <v>1.6</v>
@@ -39573,7 +39576,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39660,10 +39663,10 @@
         <v>0.78</v>
       </c>
       <c r="AS201">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT201">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU201">
         <v>1.5</v>
@@ -39851,7 +39854,7 @@
         <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT202">
         <v>1.53</v>
@@ -39955,7 +39958,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40042,7 +40045,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT203">
         <v>1.33</v>
@@ -40146,7 +40149,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40337,7 +40340,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40615,7 +40618,7 @@
         <v>0.8</v>
       </c>
       <c r="AS206">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT206">
         <v>0.6899999999999999</v>
@@ -41000,7 +41003,7 @@
         <v>1.93</v>
       </c>
       <c r="AT208">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU208">
         <v>1.41</v>
@@ -41483,7 +41486,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41761,10 +41764,10 @@
         <v>0.64</v>
       </c>
       <c r="AS212">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT212">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU212">
         <v>1.62</v>
@@ -42143,7 +42146,7 @@
         <v>0.73</v>
       </c>
       <c r="AS214">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT214">
         <v>0.6899999999999999</v>
@@ -42247,7 +42250,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42334,7 +42337,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT215">
         <v>1.15</v>
@@ -42438,7 +42441,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42907,7 +42910,7 @@
         <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT218">
         <v>1.14</v>
@@ -43202,7 +43205,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43289,7 +43292,7 @@
         <v>1</v>
       </c>
       <c r="AS220">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT220">
         <v>1.15</v>
@@ -43584,7 +43587,7 @@
         <v>232</v>
       </c>
       <c r="P222" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43862,7 +43865,7 @@
         <v>0.92</v>
       </c>
       <c r="AS223">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AT223">
         <v>0.85</v>
@@ -43966,7 +43969,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q224">
         <v>9</v>
@@ -44247,7 +44250,7 @@
         <v>2.15</v>
       </c>
       <c r="AT225">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU225">
         <v>1.76</v>
@@ -44438,7 +44441,7 @@
         <v>1.72</v>
       </c>
       <c r="AT226">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AU226">
         <v>1.55</v>
@@ -44539,7 +44542,7 @@
         <v>118</v>
       </c>
       <c r="P227" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44626,7 +44629,7 @@
         <v>1.78</v>
       </c>
       <c r="AS227">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AT227">
         <v>1.72</v>
@@ -44730,7 +44733,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45112,7 +45115,7 @@
         <v>237</v>
       </c>
       <c r="P230" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45199,7 +45202,7 @@
         <v>0.7</v>
       </c>
       <c r="AS230">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT230">
         <v>0.73</v>
@@ -45581,7 +45584,7 @@
         <v>1.36</v>
       </c>
       <c r="AS232">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT232">
         <v>1.33</v>
@@ -45876,7 +45879,7 @@
         <v>119</v>
       </c>
       <c r="P234" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q234">
         <v>9</v>
@@ -46067,7 +46070,7 @@
         <v>85</v>
       </c>
       <c r="P235" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q235">
         <v>7</v>
@@ -46400,6 +46403,1152 @@
       </c>
       <c r="BK236">
         <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:63">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>5240297</v>
+      </c>
+      <c r="C237" t="s">
+        <v>63</v>
+      </c>
+      <c r="D237" t="s">
+        <v>64</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45128.75</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237" t="s">
+        <v>69</v>
+      </c>
+      <c r="H237" t="s">
+        <v>76</v>
+      </c>
+      <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>3</v>
+      </c>
+      <c r="L237">
+        <v>3</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
+      <c r="O237" t="s">
+        <v>240</v>
+      </c>
+      <c r="P237" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q237">
+        <v>3</v>
+      </c>
+      <c r="R237">
+        <v>5</v>
+      </c>
+      <c r="S237">
+        <v>8</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>2.05</v>
+      </c>
+      <c r="V237">
+        <v>4.5</v>
+      </c>
+      <c r="W237">
+        <v>1.47</v>
+      </c>
+      <c r="X237">
+        <v>2.5</v>
+      </c>
+      <c r="Y237">
+        <v>3.15</v>
+      </c>
+      <c r="Z237">
+        <v>1.32</v>
+      </c>
+      <c r="AA237">
+        <v>8.35</v>
+      </c>
+      <c r="AB237">
+        <v>1.06</v>
+      </c>
+      <c r="AC237">
+        <v>1.85</v>
+      </c>
+      <c r="AD237">
+        <v>2.9</v>
+      </c>
+      <c r="AE237">
+        <v>4.8</v>
+      </c>
+      <c r="AF237">
+        <v>1.08</v>
+      </c>
+      <c r="AG237">
+        <v>8.5</v>
+      </c>
+      <c r="AH237">
+        <v>1.32</v>
+      </c>
+      <c r="AI237">
+        <v>3.1</v>
+      </c>
+      <c r="AJ237">
+        <v>2.08</v>
+      </c>
+      <c r="AK237">
+        <v>1.62</v>
+      </c>
+      <c r="AL237">
+        <v>1.83</v>
+      </c>
+      <c r="AM237">
+        <v>1.83</v>
+      </c>
+      <c r="AN237">
+        <v>1.25</v>
+      </c>
+      <c r="AO237">
+        <v>1.28</v>
+      </c>
+      <c r="AP237">
+        <v>1.83</v>
+      </c>
+      <c r="AQ237">
+        <v>1.8</v>
+      </c>
+      <c r="AR237">
+        <v>0.7</v>
+      </c>
+      <c r="AS237">
+        <v>1.91</v>
+      </c>
+      <c r="AT237">
+        <v>0.64</v>
+      </c>
+      <c r="AU237">
+        <v>1.92</v>
+      </c>
+      <c r="AV237">
+        <v>1.39</v>
+      </c>
+      <c r="AW237">
+        <v>3.31</v>
+      </c>
+      <c r="AX237">
+        <v>1.85</v>
+      </c>
+      <c r="AY237">
+        <v>7.5</v>
+      </c>
+      <c r="AZ237">
+        <v>2.29</v>
+      </c>
+      <c r="BA237">
+        <v>1.34</v>
+      </c>
+      <c r="BB237">
+        <v>1.62</v>
+      </c>
+      <c r="BC237">
+        <v>2.07</v>
+      </c>
+      <c r="BD237">
+        <v>2.75</v>
+      </c>
+      <c r="BE237">
+        <v>3.7</v>
+      </c>
+      <c r="BF237">
+        <v>8</v>
+      </c>
+      <c r="BG237">
+        <v>5</v>
+      </c>
+      <c r="BH237">
+        <v>7</v>
+      </c>
+      <c r="BI237">
+        <v>4</v>
+      </c>
+      <c r="BJ237">
+        <v>15</v>
+      </c>
+      <c r="BK237">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:63">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>5240302</v>
+      </c>
+      <c r="C238" t="s">
+        <v>63</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45128.84375</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238" t="s">
+        <v>83</v>
+      </c>
+      <c r="H238" t="s">
+        <v>72</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>241</v>
+      </c>
+      <c r="P238" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q238">
+        <v>3</v>
+      </c>
+      <c r="R238">
+        <v>4</v>
+      </c>
+      <c r="S238">
+        <v>7</v>
+      </c>
+      <c r="T238">
+        <v>2.53</v>
+      </c>
+      <c r="U238">
+        <v>2.15</v>
+      </c>
+      <c r="V238">
+        <v>5.24</v>
+      </c>
+      <c r="W238">
+        <v>1.47</v>
+      </c>
+      <c r="X238">
+        <v>2.7</v>
+      </c>
+      <c r="Y238">
+        <v>3.39</v>
+      </c>
+      <c r="Z238">
+        <v>1.33</v>
+      </c>
+      <c r="AA238">
+        <v>8.25</v>
+      </c>
+      <c r="AB238">
+        <v>1.06</v>
+      </c>
+      <c r="AC238">
+        <v>1.87</v>
+      </c>
+      <c r="AD238">
+        <v>3.4</v>
+      </c>
+      <c r="AE238">
+        <v>3.7</v>
+      </c>
+      <c r="AF238">
+        <v>1.07</v>
+      </c>
+      <c r="AG238">
+        <v>7</v>
+      </c>
+      <c r="AH238">
+        <v>1.38</v>
+      </c>
+      <c r="AI238">
+        <v>2.8</v>
+      </c>
+      <c r="AJ238">
+        <v>2.07</v>
+      </c>
+      <c r="AK238">
+        <v>1.62</v>
+      </c>
+      <c r="AL238">
+        <v>2</v>
+      </c>
+      <c r="AM238">
+        <v>1.73</v>
+      </c>
+      <c r="AN238">
+        <v>1.22</v>
+      </c>
+      <c r="AO238">
+        <v>1.29</v>
+      </c>
+      <c r="AP238">
+        <v>2</v>
+      </c>
+      <c r="AQ238">
+        <v>1.9</v>
+      </c>
+      <c r="AR238">
+        <v>0.7</v>
+      </c>
+      <c r="AS238">
+        <v>1.82</v>
+      </c>
+      <c r="AT238">
+        <v>0.73</v>
+      </c>
+      <c r="AU238">
+        <v>1.72</v>
+      </c>
+      <c r="AV238">
+        <v>1.45</v>
+      </c>
+      <c r="AW238">
+        <v>3.17</v>
+      </c>
+      <c r="AX238">
+        <v>1.45</v>
+      </c>
+      <c r="AY238">
+        <v>8.5</v>
+      </c>
+      <c r="AZ238">
+        <v>3.29</v>
+      </c>
+      <c r="BA238">
+        <v>1.34</v>
+      </c>
+      <c r="BB238">
+        <v>1.65</v>
+      </c>
+      <c r="BC238">
+        <v>2.1</v>
+      </c>
+      <c r="BD238">
+        <v>2.85</v>
+      </c>
+      <c r="BE238">
+        <v>3.8</v>
+      </c>
+      <c r="BF238">
+        <v>5</v>
+      </c>
+      <c r="BG238">
+        <v>2</v>
+      </c>
+      <c r="BH238">
+        <v>3</v>
+      </c>
+      <c r="BI238">
+        <v>1</v>
+      </c>
+      <c r="BJ238">
+        <v>8</v>
+      </c>
+      <c r="BK238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:63">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>5240299</v>
+      </c>
+      <c r="C239" t="s">
+        <v>63</v>
+      </c>
+      <c r="D239" t="s">
+        <v>64</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45128.9375</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239" t="s">
+        <v>79</v>
+      </c>
+      <c r="H239" t="s">
+        <v>81</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>123</v>
+      </c>
+      <c r="P239" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q239">
+        <v>5</v>
+      </c>
+      <c r="R239">
+        <v>4</v>
+      </c>
+      <c r="S239">
+        <v>9</v>
+      </c>
+      <c r="T239">
+        <v>2.6</v>
+      </c>
+      <c r="U239">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>4.1</v>
+      </c>
+      <c r="W239">
+        <v>1.44</v>
+      </c>
+      <c r="X239">
+        <v>2.55</v>
+      </c>
+      <c r="Y239">
+        <v>3.1</v>
+      </c>
+      <c r="Z239">
+        <v>1.32</v>
+      </c>
+      <c r="AA239">
+        <v>8.25</v>
+      </c>
+      <c r="AB239">
+        <v>1.06</v>
+      </c>
+      <c r="AC239">
+        <v>2.05</v>
+      </c>
+      <c r="AD239">
+        <v>3.3</v>
+      </c>
+      <c r="AE239">
+        <v>3.25</v>
+      </c>
+      <c r="AF239">
+        <v>1.07</v>
+      </c>
+      <c r="AG239">
+        <v>7.75</v>
+      </c>
+      <c r="AH239">
+        <v>1.36</v>
+      </c>
+      <c r="AI239">
+        <v>2.87</v>
+      </c>
+      <c r="AJ239">
+        <v>2.07</v>
+      </c>
+      <c r="AK239">
+        <v>1.62</v>
+      </c>
+      <c r="AL239">
+        <v>1.91</v>
+      </c>
+      <c r="AM239">
+        <v>1.85</v>
+      </c>
+      <c r="AN239">
+        <v>1.27</v>
+      </c>
+      <c r="AO239">
+        <v>1.3</v>
+      </c>
+      <c r="AP239">
+        <v>1.77</v>
+      </c>
+      <c r="AQ239">
+        <v>1.71</v>
+      </c>
+      <c r="AR239">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS239">
+        <v>1.67</v>
+      </c>
+      <c r="AT239">
+        <v>0.71</v>
+      </c>
+      <c r="AU239">
+        <v>1.6</v>
+      </c>
+      <c r="AV239">
+        <v>1.29</v>
+      </c>
+      <c r="AW239">
+        <v>2.89</v>
+      </c>
+      <c r="AX239">
+        <v>1.75</v>
+      </c>
+      <c r="AY239">
+        <v>8</v>
+      </c>
+      <c r="AZ239">
+        <v>2.52</v>
+      </c>
+      <c r="BA239">
+        <v>1.18</v>
+      </c>
+      <c r="BB239">
+        <v>1.49</v>
+      </c>
+      <c r="BC239">
+        <v>1.85</v>
+      </c>
+      <c r="BD239">
+        <v>2.37</v>
+      </c>
+      <c r="BE239">
+        <v>3.3</v>
+      </c>
+      <c r="BF239">
+        <v>3</v>
+      </c>
+      <c r="BG239">
+        <v>3</v>
+      </c>
+      <c r="BH239">
+        <v>3</v>
+      </c>
+      <c r="BI239">
+        <v>5</v>
+      </c>
+      <c r="BJ239">
+        <v>6</v>
+      </c>
+      <c r="BK239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:63">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>5240296</v>
+      </c>
+      <c r="C240" t="s">
+        <v>63</v>
+      </c>
+      <c r="D240" t="s">
+        <v>64</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45129.9375</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="G240" t="s">
+        <v>84</v>
+      </c>
+      <c r="H240" t="s">
+        <v>74</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240" t="s">
+        <v>85</v>
+      </c>
+      <c r="P240" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q240">
+        <v>6</v>
+      </c>
+      <c r="R240">
+        <v>7</v>
+      </c>
+      <c r="S240">
+        <v>13</v>
+      </c>
+      <c r="T240">
+        <v>2.15</v>
+      </c>
+      <c r="U240">
+        <v>2.2</v>
+      </c>
+      <c r="V240">
+        <v>5.5</v>
+      </c>
+      <c r="W240">
+        <v>1.39</v>
+      </c>
+      <c r="X240">
+        <v>2.8</v>
+      </c>
+      <c r="Y240">
+        <v>2.9</v>
+      </c>
+      <c r="Z240">
+        <v>1.37</v>
+      </c>
+      <c r="AA240">
+        <v>7.4</v>
+      </c>
+      <c r="AB240">
+        <v>1.06</v>
+      </c>
+      <c r="AC240">
+        <v>1.58</v>
+      </c>
+      <c r="AD240">
+        <v>3.5</v>
+      </c>
+      <c r="AE240">
+        <v>4.95</v>
+      </c>
+      <c r="AF240">
+        <v>1.05</v>
+      </c>
+      <c r="AG240">
+        <v>11</v>
+      </c>
+      <c r="AH240">
+        <v>1.33</v>
+      </c>
+      <c r="AI240">
+        <v>3.3</v>
+      </c>
+      <c r="AJ240">
+        <v>2.05</v>
+      </c>
+      <c r="AK240">
+        <v>1.75</v>
+      </c>
+      <c r="AL240">
+        <v>2</v>
+      </c>
+      <c r="AM240">
+        <v>1.8</v>
+      </c>
+      <c r="AN240">
+        <v>1.15</v>
+      </c>
+      <c r="AO240">
+        <v>1.2</v>
+      </c>
+      <c r="AP240">
+        <v>2.3</v>
+      </c>
+      <c r="AQ240">
+        <v>2.43</v>
+      </c>
+      <c r="AR240">
+        <v>0.9</v>
+      </c>
+      <c r="AS240">
+        <v>2.33</v>
+      </c>
+      <c r="AT240">
+        <v>0.91</v>
+      </c>
+      <c r="AU240">
+        <v>1.68</v>
+      </c>
+      <c r="AV240">
+        <v>1.2</v>
+      </c>
+      <c r="AW240">
+        <v>2.88</v>
+      </c>
+      <c r="AX240">
+        <v>1.37</v>
+      </c>
+      <c r="AY240">
+        <v>10</v>
+      </c>
+      <c r="AZ240">
+        <v>3.85</v>
+      </c>
+      <c r="BA240">
+        <v>1.38</v>
+      </c>
+      <c r="BB240">
+        <v>1.71</v>
+      </c>
+      <c r="BC240">
+        <v>2.25</v>
+      </c>
+      <c r="BD240">
+        <v>3.1</v>
+      </c>
+      <c r="BE240">
+        <v>3.35</v>
+      </c>
+      <c r="BF240">
+        <v>2</v>
+      </c>
+      <c r="BG240">
+        <v>4</v>
+      </c>
+      <c r="BH240">
+        <v>7</v>
+      </c>
+      <c r="BI240">
+        <v>4</v>
+      </c>
+      <c r="BJ240">
+        <v>9</v>
+      </c>
+      <c r="BK240">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:63">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>5240293</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>64</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45130.73958333334</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+      <c r="G241" t="s">
+        <v>65</v>
+      </c>
+      <c r="H241" t="s">
+        <v>73</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241" t="s">
+        <v>199</v>
+      </c>
+      <c r="P241" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q241">
+        <v>4</v>
+      </c>
+      <c r="R241">
+        <v>2</v>
+      </c>
+      <c r="S241">
+        <v>6</v>
+      </c>
+      <c r="T241">
+        <v>2.79</v>
+      </c>
+      <c r="U241">
+        <v>2.15</v>
+      </c>
+      <c r="V241">
+        <v>4.4</v>
+      </c>
+      <c r="W241">
+        <v>1.46</v>
+      </c>
+      <c r="X241">
+        <v>2.77</v>
+      </c>
+      <c r="Y241">
+        <v>3.28</v>
+      </c>
+      <c r="Z241">
+        <v>1.35</v>
+      </c>
+      <c r="AA241">
+        <v>7.9</v>
+      </c>
+      <c r="AB241">
+        <v>1.05</v>
+      </c>
+      <c r="AC241">
+        <v>2.05</v>
+      </c>
+      <c r="AD241">
+        <v>3.1</v>
+      </c>
+      <c r="AE241">
+        <v>3.45</v>
+      </c>
+      <c r="AF241">
+        <v>1.07</v>
+      </c>
+      <c r="AG241">
+        <v>9</v>
+      </c>
+      <c r="AH241">
+        <v>1.38</v>
+      </c>
+      <c r="AI241">
+        <v>3</v>
+      </c>
+      <c r="AJ241">
+        <v>2.15</v>
+      </c>
+      <c r="AK241">
+        <v>1.7</v>
+      </c>
+      <c r="AL241">
+        <v>1.9</v>
+      </c>
+      <c r="AM241">
+        <v>1.87</v>
+      </c>
+      <c r="AN241">
+        <v>1.25</v>
+      </c>
+      <c r="AO241">
+        <v>1.27</v>
+      </c>
+      <c r="AP241">
+        <v>1.57</v>
+      </c>
+      <c r="AQ241">
+        <v>1.3</v>
+      </c>
+      <c r="AR241">
+        <v>0.6</v>
+      </c>
+      <c r="AS241">
+        <v>1.45</v>
+      </c>
+      <c r="AT241">
+        <v>0.55</v>
+      </c>
+      <c r="AU241">
+        <v>1.53</v>
+      </c>
+      <c r="AV241">
+        <v>1.43</v>
+      </c>
+      <c r="AW241">
+        <v>2.96</v>
+      </c>
+      <c r="AX241">
+        <v>1.56</v>
+      </c>
+      <c r="AY241">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ241">
+        <v>2.9</v>
+      </c>
+      <c r="BA241">
+        <v>1.26</v>
+      </c>
+      <c r="BB241">
+        <v>1.5</v>
+      </c>
+      <c r="BC241">
+        <v>1.98</v>
+      </c>
+      <c r="BD241">
+        <v>2.5</v>
+      </c>
+      <c r="BE241">
+        <v>3.5</v>
+      </c>
+      <c r="BF241">
+        <v>7</v>
+      </c>
+      <c r="BG241">
+        <v>2</v>
+      </c>
+      <c r="BH241">
+        <v>9</v>
+      </c>
+      <c r="BI241">
+        <v>6</v>
+      </c>
+      <c r="BJ241">
+        <v>16</v>
+      </c>
+      <c r="BK241">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:63">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>5240295</v>
+      </c>
+      <c r="C242" t="s">
+        <v>63</v>
+      </c>
+      <c r="D242" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45130.92361111111</v>
+      </c>
+      <c r="F242">
+        <v>2</v>
+      </c>
+      <c r="G242" t="s">
+        <v>78</v>
+      </c>
+      <c r="H242" t="s">
+        <v>75</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>1</v>
+      </c>
+      <c r="O242" t="s">
+        <v>195</v>
+      </c>
+      <c r="P242" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q242">
+        <v>5</v>
+      </c>
+      <c r="R242">
+        <v>6</v>
+      </c>
+      <c r="S242">
+        <v>11</v>
+      </c>
+      <c r="T242">
+        <v>2.8</v>
+      </c>
+      <c r="U242">
+        <v>2.05</v>
+      </c>
+      <c r="V242">
+        <v>4.33</v>
+      </c>
+      <c r="W242">
+        <v>1.44</v>
+      </c>
+      <c r="X242">
+        <v>2.6</v>
+      </c>
+      <c r="Y242">
+        <v>3.05</v>
+      </c>
+      <c r="Z242">
+        <v>1.33</v>
+      </c>
+      <c r="AA242">
+        <v>7.9</v>
+      </c>
+      <c r="AB242">
+        <v>1.05</v>
+      </c>
+      <c r="AC242">
+        <v>2.05</v>
+      </c>
+      <c r="AD242">
+        <v>3</v>
+      </c>
+      <c r="AE242">
+        <v>3.4</v>
+      </c>
+      <c r="AF242">
+        <v>1.07</v>
+      </c>
+      <c r="AG242">
+        <v>9</v>
+      </c>
+      <c r="AH242">
+        <v>1.38</v>
+      </c>
+      <c r="AI242">
+        <v>3</v>
+      </c>
+      <c r="AJ242">
+        <v>2.15</v>
+      </c>
+      <c r="AK242">
+        <v>1.57</v>
+      </c>
+      <c r="AL242">
+        <v>1.9</v>
+      </c>
+      <c r="AM242">
+        <v>1.83</v>
+      </c>
+      <c r="AN242">
+        <v>1.25</v>
+      </c>
+      <c r="AO242">
+        <v>1.34</v>
+      </c>
+      <c r="AP242">
+        <v>1.77</v>
+      </c>
+      <c r="AQ242">
+        <v>1.5</v>
+      </c>
+      <c r="AR242">
+        <v>1.1</v>
+      </c>
+      <c r="AS242">
+        <v>1.6</v>
+      </c>
+      <c r="AT242">
+        <v>1</v>
+      </c>
+      <c r="AU242">
+        <v>1.71</v>
+      </c>
+      <c r="AV242">
+        <v>1.07</v>
+      </c>
+      <c r="AW242">
+        <v>2.78</v>
+      </c>
+      <c r="AX242">
+        <v>1.66</v>
+      </c>
+      <c r="AY242">
+        <v>8.9</v>
+      </c>
+      <c r="AZ242">
+        <v>2.64</v>
+      </c>
+      <c r="BA242">
+        <v>1.25</v>
+      </c>
+      <c r="BB242">
+        <v>1.59</v>
+      </c>
+      <c r="BC242">
+        <v>1.95</v>
+      </c>
+      <c r="BD242">
+        <v>2.41</v>
+      </c>
+      <c r="BE242">
+        <v>3.3</v>
+      </c>
+      <c r="BF242">
+        <v>5</v>
+      </c>
+      <c r="BG242">
+        <v>3</v>
+      </c>
+      <c r="BH242">
+        <v>5</v>
+      </c>
+      <c r="BI242">
+        <v>5</v>
+      </c>
+      <c r="BJ242">
+        <v>10</v>
+      </c>
+      <c r="BK242">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,9 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['19', '39']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK242"/>
+  <dimension ref="A1:BK243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2331,7 +2334,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2713,7 +2716,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2800,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT8">
         <v>0.7</v>
@@ -3095,7 +3098,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3477,7 +3480,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3859,7 +3862,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4432,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4814,7 +4817,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4901,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT19">
         <v>1.53</v>
@@ -5005,7 +5008,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5769,7 +5772,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6342,7 +6345,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6429,7 +6432,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT27">
         <v>0.91</v>
@@ -6724,7 +6727,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6915,7 +6918,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7297,7 +7300,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7488,7 +7491,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -8252,7 +8255,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8825,7 +8828,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9016,7 +9019,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9207,7 +9210,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9398,7 +9401,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -10058,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT46">
         <v>0.91</v>
@@ -10735,7 +10738,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -11499,7 +11502,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11881,7 +11884,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12072,7 +12075,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -13027,7 +13030,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13218,7 +13221,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13308,7 +13311,7 @@
         <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU63">
         <v>1.93</v>
@@ -13600,7 +13603,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13687,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT65">
         <v>0.55</v>
@@ -13791,7 +13794,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14937,7 +14940,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15510,7 +15513,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15791,7 +15794,7 @@
         <v>1.18</v>
       </c>
       <c r="AT76">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU76">
         <v>1.7</v>
@@ -16083,7 +16086,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16274,7 +16277,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16656,7 +16659,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -17802,7 +17805,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17892,7 +17895,7 @@
         <v>1.82</v>
       </c>
       <c r="AT87">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU87">
         <v>1.81</v>
@@ -18757,7 +18760,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18948,7 +18951,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19139,7 +19142,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19521,7 +19524,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19799,7 +19802,7 @@
         <v>1.4</v>
       </c>
       <c r="AS97">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT97">
         <v>0.92</v>
@@ -19903,7 +19906,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20094,7 +20097,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20566,7 +20569,7 @@
         <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU101">
         <v>1.91</v>
@@ -21240,7 +21243,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21622,7 +21625,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22195,7 +22198,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22664,7 +22667,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT112">
         <v>0.73</v>
@@ -23341,7 +23344,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23723,7 +23726,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24296,7 +24299,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24487,7 +24490,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -25341,7 +25344,7 @@
         <v>1.55</v>
       </c>
       <c r="AT126">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU126">
         <v>1.83</v>
@@ -25824,7 +25827,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26015,7 +26018,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26206,7 +26209,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26487,7 +26490,7 @@
         <v>2.15</v>
       </c>
       <c r="AT132">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU132">
         <v>1.74</v>
@@ -26588,7 +26591,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26779,7 +26782,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -27057,7 +27060,7 @@
         <v>0.5</v>
       </c>
       <c r="AS135">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT135">
         <v>0.73</v>
@@ -27734,7 +27737,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -29071,7 +29074,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29453,7 +29456,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29734,7 +29737,7 @@
         <v>1.27</v>
       </c>
       <c r="AT149">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU149">
         <v>1.59</v>
@@ -30026,7 +30029,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30599,7 +30602,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30790,7 +30793,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31363,7 +31366,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31554,7 +31557,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -32127,7 +32130,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32787,7 +32790,7 @@
         <v>0.71</v>
       </c>
       <c r="AS165">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT165">
         <v>0.64</v>
@@ -32891,7 +32894,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33273,7 +33276,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33655,7 +33658,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -34037,7 +34040,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34228,7 +34231,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34318,7 +34321,7 @@
         <v>1.93</v>
       </c>
       <c r="AT173">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU173">
         <v>1.42</v>
@@ -34992,7 +34995,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35273,7 +35276,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU178">
         <v>1.49</v>
@@ -35565,7 +35568,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35756,7 +35759,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35947,7 +35950,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36225,7 +36228,7 @@
         <v>0.78</v>
       </c>
       <c r="AS183">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -38329,7 +38332,7 @@
         <v>1.5</v>
       </c>
       <c r="AT194">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU194">
         <v>1.74</v>
@@ -38812,7 +38815,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39385,7 +39388,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39576,7 +39579,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39958,7 +39961,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40149,7 +40152,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40340,7 +40343,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40621,7 +40624,7 @@
         <v>2.33</v>
       </c>
       <c r="AT206">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU206">
         <v>1.64</v>
@@ -41486,7 +41489,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -42149,7 +42152,7 @@
         <v>1.6</v>
       </c>
       <c r="AT214">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU214">
         <v>1.8</v>
@@ -42250,7 +42253,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42441,7 +42444,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -43205,7 +43208,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43587,7 +43590,7 @@
         <v>232</v>
       </c>
       <c r="P222" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43677,7 +43680,7 @@
         <v>2.14</v>
       </c>
       <c r="AT222">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU222">
         <v>1.76</v>
@@ -43969,7 +43972,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q224">
         <v>9</v>
@@ -44542,7 +44545,7 @@
         <v>118</v>
       </c>
       <c r="P227" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44733,7 +44736,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -45115,7 +45118,7 @@
         <v>237</v>
       </c>
       <c r="P230" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45879,7 +45882,7 @@
         <v>119</v>
       </c>
       <c r="P234" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q234">
         <v>9</v>
@@ -46070,7 +46073,7 @@
         <v>85</v>
       </c>
       <c r="P235" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q235">
         <v>7</v>
@@ -46452,7 +46455,7 @@
         <v>240</v>
       </c>
       <c r="P237" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46643,7 +46646,7 @@
         <v>241</v>
       </c>
       <c r="P238" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -46834,7 +46837,7 @@
         <v>123</v>
       </c>
       <c r="P239" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47549,6 +47552,197 @@
       </c>
       <c r="BK242">
         <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:63">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>5240294</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>64</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45131.875</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243" t="s">
+        <v>71</v>
+      </c>
+      <c r="H243" t="s">
+        <v>68</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>2</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243">
+        <v>3</v>
+      </c>
+      <c r="O243" t="s">
+        <v>242</v>
+      </c>
+      <c r="P243" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q243">
+        <v>2</v>
+      </c>
+      <c r="R243">
+        <v>6</v>
+      </c>
+      <c r="S243">
+        <v>8</v>
+      </c>
+      <c r="T243">
+        <v>3.1</v>
+      </c>
+      <c r="U243">
+        <v>1.95</v>
+      </c>
+      <c r="V243">
+        <v>3.8</v>
+      </c>
+      <c r="W243">
+        <v>1.5</v>
+      </c>
+      <c r="X243">
+        <v>2.4</v>
+      </c>
+      <c r="Y243">
+        <v>3.3</v>
+      </c>
+      <c r="Z243">
+        <v>1.29</v>
+      </c>
+      <c r="AA243">
+        <v>8</v>
+      </c>
+      <c r="AB243">
+        <v>1.05</v>
+      </c>
+      <c r="AC243">
+        <v>2.43</v>
+      </c>
+      <c r="AD243">
+        <v>2.95</v>
+      </c>
+      <c r="AE243">
+        <v>3.25</v>
+      </c>
+      <c r="AF243">
+        <v>1.08</v>
+      </c>
+      <c r="AG243">
+        <v>6.5</v>
+      </c>
+      <c r="AH243">
+        <v>1.42</v>
+      </c>
+      <c r="AI243">
+        <v>2.62</v>
+      </c>
+      <c r="AJ243">
+        <v>2.43</v>
+      </c>
+      <c r="AK243">
+        <v>1.56</v>
+      </c>
+      <c r="AL243">
+        <v>2.02</v>
+      </c>
+      <c r="AM243">
+        <v>1.75</v>
+      </c>
+      <c r="AN243">
+        <v>1.29</v>
+      </c>
+      <c r="AO243">
+        <v>1.3</v>
+      </c>
+      <c r="AP243">
+        <v>1.48</v>
+      </c>
+      <c r="AQ243">
+        <v>1.6</v>
+      </c>
+      <c r="AR243">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS243">
+        <v>1.73</v>
+      </c>
+      <c r="AT243">
+        <v>0.64</v>
+      </c>
+      <c r="AU243">
+        <v>1.6</v>
+      </c>
+      <c r="AV243">
+        <v>1.07</v>
+      </c>
+      <c r="AW243">
+        <v>2.67</v>
+      </c>
+      <c r="AX243">
+        <v>1.75</v>
+      </c>
+      <c r="AY243">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ243">
+        <v>2.42</v>
+      </c>
+      <c r="BA243">
+        <v>1.21</v>
+      </c>
+      <c r="BB243">
+        <v>1.41</v>
+      </c>
+      <c r="BC243">
+        <v>1.75</v>
+      </c>
+      <c r="BD243">
+        <v>2.15</v>
+      </c>
+      <c r="BE243">
+        <v>2.88</v>
+      </c>
+      <c r="BF243">
+        <v>5</v>
+      </c>
+      <c r="BG243">
+        <v>6</v>
+      </c>
+      <c r="BH243">
+        <v>6</v>
+      </c>
+      <c r="BI243">
+        <v>4</v>
+      </c>
+      <c r="BJ243">
+        <v>11</v>
+      </c>
+      <c r="BK243">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera A_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,15 @@
     <t>['19', '39']</t>
   </si>
   <si>
+    <t>['23', '90']</t>
+  </si>
+  <si>
+    <t>['22', '29', '54', '86']</t>
+  </si>
+  <si>
+    <t>['9', '48']</t>
+  </si>
+  <si>
     <t>['63']</t>
   </si>
   <si>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK243"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2230,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2334,7 +2343,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2421,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT6">
         <v>1.15</v>
@@ -2612,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.64</v>
@@ -2716,7 +2725,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>6</v>
@@ -2994,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3098,7 +3107,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>11</v>
@@ -3185,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3376,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU11">
         <v>2.15</v>
@@ -3480,7 +3489,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3570,7 +3579,7 @@
         <v>1.45</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3758,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT13">
         <v>0.85</v>
@@ -3862,7 +3871,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3949,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT14">
         <v>0.55</v>
@@ -4140,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT15">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU15">
         <v>1.91</v>
@@ -4331,10 +4340,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT16">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4435,7 +4444,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -4817,7 +4826,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5008,7 +5017,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5772,7 +5781,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -6050,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU25">
         <v>2.16</v>
@@ -6241,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT26">
         <v>0.55</v>
@@ -6345,7 +6354,7 @@
         <v>106</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6435,7 +6444,7 @@
         <v>1.73</v>
       </c>
       <c r="AT27">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU27">
         <v>1.61</v>
@@ -6623,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT28">
         <v>0.85</v>
@@ -6727,7 +6736,7 @@
         <v>108</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>2</v>
@@ -6814,10 +6823,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU29">
         <v>1.95</v>
@@ -6918,7 +6927,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7005,10 +7014,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT30">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU30">
         <v>2.5</v>
@@ -7196,10 +7205,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT31">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU31">
         <v>1.86</v>
@@ -7300,7 +7309,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7387,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU32">
         <v>1.45</v>
@@ -7491,7 +7500,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q33">
         <v>8</v>
@@ -7581,7 +7590,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7960,7 +7969,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>0.55</v>
@@ -8151,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT36">
         <v>0.71</v>
@@ -8255,7 +8264,7 @@
         <v>85</v>
       </c>
       <c r="P37" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8536,7 +8545,7 @@
         <v>2.33</v>
       </c>
       <c r="AT38">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8828,7 +8837,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9019,7 +9028,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9210,7 +9219,7 @@
         <v>116</v>
       </c>
       <c r="P42" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9401,7 +9410,7 @@
         <v>117</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9491,7 +9500,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU43">
         <v>1.81</v>
@@ -9682,7 +9691,7 @@
         <v>2.15</v>
       </c>
       <c r="AT44">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU44">
         <v>2.03</v>
@@ -9870,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU45">
         <v>2.31</v>
@@ -10064,7 +10073,7 @@
         <v>1.73</v>
       </c>
       <c r="AT46">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU46">
         <v>1.65</v>
@@ -10252,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="AS47">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT47">
         <v>0.73</v>
@@ -10446,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="AT48">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU48">
         <v>2.44</v>
@@ -10634,10 +10643,10 @@
         <v>3</v>
       </c>
       <c r="AS49">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU49">
         <v>1.92</v>
@@ -10738,7 +10747,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10825,10 +10834,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU50">
         <v>1.78</v>
@@ -11016,7 +11025,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT51">
         <v>0.85</v>
@@ -11207,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>0.55</v>
@@ -11398,10 +11407,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT53">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU53">
         <v>1.73</v>
@@ -11502,7 +11511,7 @@
         <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11592,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AT54">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>2.02</v>
@@ -11884,7 +11893,7 @@
         <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>3</v>
@@ -12075,7 +12084,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12162,7 +12171,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT57">
         <v>0.7</v>
@@ -12356,7 +12365,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU58">
         <v>1.53</v>
@@ -12547,7 +12556,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU59">
         <v>1.98</v>
@@ -12738,7 +12747,7 @@
         <v>2.33</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU60">
         <v>2.02</v>
@@ -13030,7 +13039,7 @@
         <v>131</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13221,7 +13230,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13308,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.64</v>
@@ -13499,10 +13508,10 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT64">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13603,7 +13612,7 @@
         <v>134</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13794,7 +13803,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13884,7 +13893,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU66">
         <v>1.84</v>
@@ -14072,10 +14081,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU67">
         <v>1.47</v>
@@ -14263,7 +14272,7 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT68">
         <v>0.85</v>
@@ -14457,7 +14466,7 @@
         <v>2.15</v>
       </c>
       <c r="AT69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU69">
         <v>2.01</v>
@@ -14645,7 +14654,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
         <v>0.73</v>
@@ -14836,10 +14845,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT71">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU71">
         <v>2.08</v>
@@ -14940,7 +14949,7 @@
         <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>6</v>
@@ -15027,10 +15036,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT72">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU72">
         <v>1.69</v>
@@ -15218,10 +15227,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT73">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU73">
         <v>1.76</v>
@@ -15513,7 +15522,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15791,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="AS76">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
         <v>0.64</v>
@@ -15985,7 +15994,7 @@
         <v>1.82</v>
       </c>
       <c r="AT77">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU77">
         <v>1.62</v>
@@ -16086,7 +16095,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16176,7 +16185,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16277,7 +16286,7 @@
         <v>123</v>
       </c>
       <c r="P79" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16364,7 +16373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
         <v>0.7</v>
@@ -16555,7 +16564,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16659,7 +16668,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16749,7 +16758,7 @@
         <v>2.33</v>
       </c>
       <c r="AT81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -16940,7 +16949,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU82">
         <v>1.76</v>
@@ -17319,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="AS84">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT84">
         <v>0.64</v>
@@ -17513,7 +17522,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85">
         <v>2.18</v>
@@ -17704,7 +17713,7 @@
         <v>2.33</v>
       </c>
       <c r="AT86">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU86">
         <v>1.6</v>
@@ -17805,7 +17814,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -18083,7 +18092,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -18465,10 +18474,10 @@
         <v>0.75</v>
       </c>
       <c r="AS90">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.59</v>
@@ -18656,10 +18665,10 @@
         <v>1.25</v>
       </c>
       <c r="AS91">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT91">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU91">
         <v>2.01</v>
@@ -18760,7 +18769,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -18847,7 +18856,7 @@
         <v>0.8</v>
       </c>
       <c r="AS92">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>0.85</v>
@@ -18951,7 +18960,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19038,7 +19047,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT93">
         <v>0.55</v>
@@ -19142,7 +19151,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>8</v>
@@ -19524,7 +19533,7 @@
         <v>109</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19614,7 +19623,7 @@
         <v>2</v>
       </c>
       <c r="AT96">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU96">
         <v>2.07</v>
@@ -19805,7 +19814,7 @@
         <v>1.73</v>
       </c>
       <c r="AT97">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU97">
         <v>1.69</v>
@@ -19906,7 +19915,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19993,10 +20002,10 @@
         <v>0.5</v>
       </c>
       <c r="AS98">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT98">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU98">
         <v>1.64</v>
@@ -20097,7 +20106,7 @@
         <v>108</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20184,10 +20193,10 @@
         <v>1.75</v>
       </c>
       <c r="AS99">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT99">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.85</v>
@@ -20378,7 +20387,7 @@
         <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.61</v>
@@ -20757,7 +20766,7 @@
         <v>0.8</v>
       </c>
       <c r="AS102">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT102">
         <v>0.64</v>
@@ -21243,7 +21252,7 @@
         <v>85</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21333,7 +21342,7 @@
         <v>1.45</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU105">
         <v>1.58</v>
@@ -21521,10 +21530,10 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT106">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU106">
         <v>1.92</v>
@@ -21625,7 +21634,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21715,7 +21724,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21903,10 +21912,10 @@
         <v>0.8</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU108">
         <v>1.57</v>
@@ -22094,7 +22103,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
         <v>0.71</v>
@@ -22198,7 +22207,7 @@
         <v>162</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>6</v>
@@ -22476,10 +22485,10 @@
         <v>0.6</v>
       </c>
       <c r="AS111">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU111">
         <v>1.48</v>
@@ -22861,7 +22870,7 @@
         <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU113">
         <v>1.82</v>
@@ -23243,7 +23252,7 @@
         <v>1.45</v>
       </c>
       <c r="AT115">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU115">
         <v>1.55</v>
@@ -23344,7 +23353,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23431,7 +23440,7 @@
         <v>1.2</v>
       </c>
       <c r="AS116">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT116">
         <v>0.7</v>
@@ -23622,7 +23631,7 @@
         <v>0.4</v>
       </c>
       <c r="AS117">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -23726,7 +23735,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23813,10 +23822,10 @@
         <v>1.67</v>
       </c>
       <c r="AS118">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -24195,10 +24204,10 @@
         <v>1.83</v>
       </c>
       <c r="AS120">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU120">
         <v>1.46</v>
@@ -24299,7 +24308,7 @@
         <v>149</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24386,10 +24395,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT121">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU121">
         <v>1.98</v>
@@ -24490,7 +24499,7 @@
         <v>85</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24580,7 +24589,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU122">
         <v>1.35</v>
@@ -24771,7 +24780,7 @@
         <v>1.6</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU123">
         <v>1.64</v>
@@ -24959,7 +24968,7 @@
         <v>0.83</v>
       </c>
       <c r="AS124">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT124">
         <v>0.55</v>
@@ -25153,7 +25162,7 @@
         <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU125">
         <v>1.54</v>
@@ -25341,7 +25350,7 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
         <v>0.64</v>
@@ -25532,10 +25541,10 @@
         <v>0.4</v>
       </c>
       <c r="AS127">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT127">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU127">
         <v>1.85</v>
@@ -25726,7 +25735,7 @@
         <v>1.5</v>
       </c>
       <c r="AT128">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU128">
         <v>1.88</v>
@@ -25827,7 +25836,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26018,7 +26027,7 @@
         <v>155</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>8</v>
@@ -26209,7 +26218,7 @@
         <v>85</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26296,7 +26305,7 @@
         <v>0.83</v>
       </c>
       <c r="AS131">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT131">
         <v>1</v>
@@ -26591,7 +26600,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -26678,10 +26687,10 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU133">
         <v>1.4</v>
@@ -26782,7 +26791,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>7</v>
@@ -26869,7 +26878,7 @@
         <v>0.4</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT134">
         <v>0.71</v>
@@ -27063,7 +27072,7 @@
         <v>1.73</v>
       </c>
       <c r="AT135">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU135">
         <v>1.65</v>
@@ -27251,7 +27260,7 @@
         <v>1.4</v>
       </c>
       <c r="AS136">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT136">
         <v>1.15</v>
@@ -27445,7 +27454,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27737,7 +27746,7 @@
         <v>85</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>5</v>
@@ -27824,10 +27833,10 @@
         <v>0.57</v>
       </c>
       <c r="AS139">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU139">
         <v>1.78</v>
@@ -28015,10 +28024,10 @@
         <v>0.33</v>
       </c>
       <c r="AS140">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT140">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU140">
         <v>1.78</v>
@@ -28209,7 +28218,7 @@
         <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU141">
         <v>1.87</v>
@@ -28397,7 +28406,7 @@
         <v>1.6</v>
       </c>
       <c r="AS142">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT142">
         <v>1.53</v>
@@ -28591,7 +28600,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28779,7 +28788,7 @@
         <v>0.71</v>
       </c>
       <c r="AS144">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT144">
         <v>0.55</v>
@@ -28970,10 +28979,10 @@
         <v>1.14</v>
       </c>
       <c r="AS145">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT145">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU145">
         <v>1.86</v>
@@ -29074,7 +29083,7 @@
         <v>184</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29355,7 +29364,7 @@
         <v>1.67</v>
       </c>
       <c r="AT147">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU147">
         <v>1.4</v>
@@ -29456,7 +29465,7 @@
         <v>186</v>
       </c>
       <c r="P148" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29543,7 +29552,7 @@
         <v>1</v>
       </c>
       <c r="AS148">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT148">
         <v>0.85</v>
@@ -29734,7 +29743,7 @@
         <v>0.83</v>
       </c>
       <c r="AS149">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT149">
         <v>0.64</v>
@@ -29925,10 +29934,10 @@
         <v>0.29</v>
       </c>
       <c r="AS150">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT150">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU150">
         <v>1.94</v>
@@ -30029,7 +30038,7 @@
         <v>188</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30307,10 +30316,10 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU152">
         <v>1.49</v>
@@ -30602,7 +30611,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30793,7 +30802,7 @@
         <v>191</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>5</v>
@@ -31265,7 +31274,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU157">
         <v>1.43</v>
@@ -31366,7 +31375,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31453,10 +31462,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT158">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU158">
         <v>1.71</v>
@@ -31557,7 +31566,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q159">
         <v>3</v>
@@ -31838,7 +31847,7 @@
         <v>1.82</v>
       </c>
       <c r="AT160">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU160">
         <v>1.64</v>
@@ -32026,10 +32035,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU161">
         <v>1.77</v>
@@ -32130,7 +32139,7 @@
         <v>198</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>2</v>
@@ -32217,10 +32226,10 @@
         <v>0.88</v>
       </c>
       <c r="AS162">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU162">
         <v>1.87</v>
@@ -32408,10 +32417,10 @@
         <v>0.75</v>
       </c>
       <c r="AS163">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT163">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU163">
         <v>1.57</v>
@@ -32599,7 +32608,7 @@
         <v>0.38</v>
       </c>
       <c r="AS164">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT164">
         <v>0.55</v>
@@ -32894,7 +32903,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -33172,7 +33181,7 @@
         <v>1.14</v>
       </c>
       <c r="AS167">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>1.15</v>
@@ -33276,7 +33285,7 @@
         <v>201</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33366,7 +33375,7 @@
         <v>2.15</v>
       </c>
       <c r="AT168">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU168">
         <v>1.7</v>
@@ -33557,7 +33566,7 @@
         <v>1.45</v>
       </c>
       <c r="AT169">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU169">
         <v>1.52</v>
@@ -33658,7 +33667,7 @@
         <v>203</v>
       </c>
       <c r="P170" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33745,7 +33754,7 @@
         <v>0.86</v>
       </c>
       <c r="AS170">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT170">
         <v>0.71</v>
@@ -33936,7 +33945,7 @@
         <v>1</v>
       </c>
       <c r="AS171">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
         <v>1</v>
@@ -34040,7 +34049,7 @@
         <v>205</v>
       </c>
       <c r="P172" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34231,7 +34240,7 @@
         <v>206</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>6</v>
@@ -34318,7 +34327,7 @@
         <v>0.86</v>
       </c>
       <c r="AS173">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT173">
         <v>0.64</v>
@@ -34703,7 +34712,7 @@
         <v>1.67</v>
       </c>
       <c r="AT175">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -34995,7 +35004,7 @@
         <v>85</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35082,7 +35091,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT177">
         <v>1.15</v>
@@ -35568,7 +35577,7 @@
         <v>211</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q180">
         <v>6</v>
@@ -35759,7 +35768,7 @@
         <v>85</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -35950,7 +35959,7 @@
         <v>128</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36037,10 +36046,10 @@
         <v>1.11</v>
       </c>
       <c r="AS182">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT182">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU182">
         <v>1.41</v>
@@ -36231,7 +36240,7 @@
         <v>1.73</v>
       </c>
       <c r="AT183">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU183">
         <v>1.61</v>
@@ -36422,7 +36431,7 @@
         <v>1.82</v>
       </c>
       <c r="AT184">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.65</v>
@@ -36801,10 +36810,10 @@
         <v>1.44</v>
       </c>
       <c r="AS186">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT186">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU186">
         <v>1.57</v>
@@ -36992,10 +37001,10 @@
         <v>0.89</v>
       </c>
       <c r="AS187">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU187">
         <v>1.73</v>
@@ -37186,7 +37195,7 @@
         <v>1.6</v>
       </c>
       <c r="AT188">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU188">
         <v>1.59</v>
@@ -37374,7 +37383,7 @@
         <v>0.67</v>
       </c>
       <c r="AS189">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT189">
         <v>0.64</v>
@@ -37565,7 +37574,7 @@
         <v>1.88</v>
       </c>
       <c r="AS190">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT190">
         <v>1.53</v>
@@ -38141,7 +38150,7 @@
         <v>2.33</v>
       </c>
       <c r="AT193">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU193">
         <v>1.66</v>
@@ -38520,7 +38529,7 @@
         <v>0.78</v>
       </c>
       <c r="AS195">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT195">
         <v>0.7</v>
@@ -38714,7 +38723,7 @@
         <v>2.15</v>
       </c>
       <c r="AT196">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU196">
         <v>1.69</v>
@@ -38815,7 +38824,7 @@
         <v>85</v>
       </c>
       <c r="P197" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q197">
         <v>9</v>
@@ -38902,7 +38911,7 @@
         <v>0.89</v>
       </c>
       <c r="AS197">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT197">
         <v>1</v>
@@ -39006,7 +39015,7 @@
         <v>220</v>
       </c>
       <c r="P198" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39093,7 +39102,7 @@
         <v>1.67</v>
       </c>
       <c r="AS198">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT198">
         <v>1.53</v>
@@ -39287,7 +39296,7 @@
         <v>1.6</v>
       </c>
       <c r="AT199">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU199">
         <v>1.68</v>
@@ -39388,7 +39397,7 @@
         <v>222</v>
       </c>
       <c r="P200" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q200">
         <v>9</v>
@@ -39579,7 +39588,7 @@
         <v>223</v>
       </c>
       <c r="P201" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39961,7 +39970,7 @@
         <v>224</v>
       </c>
       <c r="P203" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q203">
         <v>3</v>
@@ -40051,7 +40060,7 @@
         <v>1.6</v>
       </c>
       <c r="AT203">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU203">
         <v>1.86</v>
@@ -40152,7 +40161,7 @@
         <v>119</v>
       </c>
       <c r="P204" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q204">
         <v>3</v>
@@ -40239,7 +40248,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT204">
         <v>1.15</v>
@@ -40343,7 +40352,7 @@
         <v>225</v>
       </c>
       <c r="P205" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q205">
         <v>6</v>
@@ -40430,10 +40439,10 @@
         <v>1.3</v>
       </c>
       <c r="AS205">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT205">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU205">
         <v>1.64</v>
@@ -40815,7 +40824,7 @@
         <v>2.15</v>
       </c>
       <c r="AT207">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU207">
         <v>1.72</v>
@@ -41003,7 +41012,7 @@
         <v>0.6</v>
       </c>
       <c r="AS208">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT208">
         <v>0.71</v>
@@ -41194,7 +41203,7 @@
         <v>1.1</v>
       </c>
       <c r="AS209">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT209">
         <v>0.85</v>
@@ -41385,7 +41394,7 @@
         <v>1</v>
       </c>
       <c r="AS210">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT210">
         <v>0.85</v>
@@ -41489,7 +41498,7 @@
         <v>85</v>
       </c>
       <c r="P211" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q211">
         <v>3</v>
@@ -41576,10 +41585,10 @@
         <v>1.36</v>
       </c>
       <c r="AS211">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT211">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU211">
         <v>1.78</v>
@@ -41958,10 +41967,10 @@
         <v>1.18</v>
       </c>
       <c r="AS213">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT213">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU213">
         <v>1.47</v>
@@ -42253,7 +42262,7 @@
         <v>229</v>
       </c>
       <c r="P215" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42444,7 +42453,7 @@
         <v>85</v>
       </c>
       <c r="P216" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q216">
         <v>15</v>
@@ -42722,10 +42731,10 @@
         <v>1.09</v>
       </c>
       <c r="AS217">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT217">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU217">
         <v>1.72</v>
@@ -42916,7 +42925,7 @@
         <v>1.67</v>
       </c>
       <c r="AT218">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU218">
         <v>1.65</v>
@@ -43104,10 +43113,10 @@
         <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT219">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU219">
         <v>1.54</v>
@@ -43208,7 +43217,7 @@
         <v>85</v>
       </c>
       <c r="P220" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>10</v>
@@ -43486,7 +43495,7 @@
         <v>1.67</v>
       </c>
       <c r="AS221">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT221">
         <v>1.53</v>
@@ -43590,7 +43599,7 @@
         <v>232</v>
       </c>
       <c r="P222" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q222">
         <v>1</v>
@@ -43677,7 +43686,7 @@
         <v>0.75</v>
       </c>
       <c r="AS222">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT222">
         <v>0.64</v>
@@ -43972,7 +43981,7 @@
         <v>234</v>
       </c>
       <c r="P224" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q224">
         <v>9</v>
@@ -44059,10 +44068,10 @@
         <v>1</v>
       </c>
       <c r="AS224">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT224">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AU224">
         <v>1.51</v>
@@ -44441,10 +44450,10 @@
         <v>1.96</v>
       </c>
       <c r="AS226">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AT226">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU226">
         <v>1.55</v>
@@ -44545,7 +44554,7 @@
         <v>118</v>
       </c>
       <c r="P227" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44632,10 +44641,10 @@
         <v>1.78</v>
       </c>
       <c r="AS227">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT227">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AU227">
         <v>1.65</v>
@@ -44736,7 +44745,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q228">
         <v>4</v>
@@ -44823,10 +44832,10 @@
         <v>0.7</v>
       </c>
       <c r="AS228">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT228">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AU228">
         <v>1.42</v>
@@ -45014,10 +45023,10 @@
         <v>0.4</v>
       </c>
       <c r="AS229">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT229">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="AU229">
         <v>1.39</v>
@@ -45118,7 +45127,7 @@
         <v>237</v>
       </c>
       <c r="P230" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q230">
         <v>6</v>
@@ -45208,7 +45217,7 @@
         <v>1.6</v>
       </c>
       <c r="AT230">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU230">
         <v>1.71</v>
@@ -45396,10 +45405,10 @@
         <v>1</v>
       </c>
       <c r="AS231">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT231">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU231">
         <v>1.73</v>
@@ -45590,7 +45599,7 @@
         <v>1.67</v>
       </c>
       <c r="AT232">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU232">
         <v>1.65</v>
@@ -45778,7 +45787,7 @@
         <v>0.6</v>
       </c>
       <c r="AS233">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AT233">
         <v>0.55</v>
@@ -45882,7 +45891,7 @@
         <v>119</v>
       </c>
       <c r="P234" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q234">
         <v>9</v>
@@ -45969,7 +45978,7 @@
         <v>1.57</v>
       </c>
       <c r="AS234">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT234">
         <v>1.53</v>
@@ -46073,7 +46082,7 @@
         <v>85</v>
       </c>
       <c r="P235" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q235">
         <v>7</v>
@@ -46163,7 +46172,7 @@
         <v>1.45</v>
       </c>
       <c r="AT235">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU235">
         <v>1.61</v>
@@ -46354,7 +46363,7 @@
         <v>2</v>
       </c>
       <c r="AT236">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AU236">
         <v>1.89</v>
@@ -46455,7 +46464,7 @@
         <v>240</v>
       </c>
       <c r="P237" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46542,7 +46551,7 @@
         <v>0.7</v>
       </c>
       <c r="AS237">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT237">
         <v>0.64</v>
@@ -46646,7 +46655,7 @@
         <v>241</v>
       </c>
       <c r="P238" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q238">
         <v>3</v>
@@ -46837,7 +46846,7 @@
         <v>123</v>
       </c>
       <c r="P239" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q239">
         <v>5</v>
@@ -47118,7 +47127,7 @@
         <v>2.33</v>
       </c>
       <c r="AT240">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU240">
         <v>1.68</v>
@@ -47743,6 +47752,1725 @@
       </c>
       <c r="BK243">
         <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:63">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>5240311</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>64</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45136.75</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244" t="s">
+        <v>69</v>
+      </c>
+      <c r="H244" t="s">
+        <v>67</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244">
+        <v>2</v>
+      </c>
+      <c r="O244" t="s">
+        <v>128</v>
+      </c>
+      <c r="P244" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q244">
+        <v>9</v>
+      </c>
+      <c r="R244">
+        <v>3</v>
+      </c>
+      <c r="S244">
+        <v>12</v>
+      </c>
+      <c r="T244">
+        <v>2.7</v>
+      </c>
+      <c r="U244">
+        <v>1.94</v>
+      </c>
+      <c r="V244">
+        <v>4.7</v>
+      </c>
+      <c r="W244">
+        <v>1.46</v>
+      </c>
+      <c r="X244">
+        <v>2.63</v>
+      </c>
+      <c r="Y244">
+        <v>3.2</v>
+      </c>
+      <c r="Z244">
+        <v>1.3</v>
+      </c>
+      <c r="AA244">
+        <v>9</v>
+      </c>
+      <c r="AB244">
+        <v>1.06</v>
+      </c>
+      <c r="AC244">
+        <v>2</v>
+      </c>
+      <c r="AD244">
+        <v>3.2</v>
+      </c>
+      <c r="AE244">
+        <v>3.7</v>
+      </c>
+      <c r="AF244">
+        <v>1.08</v>
+      </c>
+      <c r="AG244">
+        <v>8.5</v>
+      </c>
+      <c r="AH244">
+        <v>1.37</v>
+      </c>
+      <c r="AI244">
+        <v>3.05</v>
+      </c>
+      <c r="AJ244">
+        <v>2</v>
+      </c>
+      <c r="AK244">
+        <v>1.67</v>
+      </c>
+      <c r="AL244">
+        <v>1.82</v>
+      </c>
+      <c r="AM244">
+        <v>1.94</v>
+      </c>
+      <c r="AN244">
+        <v>1.23</v>
+      </c>
+      <c r="AO244">
+        <v>1.41</v>
+      </c>
+      <c r="AP244">
+        <v>1.8</v>
+      </c>
+      <c r="AQ244">
+        <v>1.91</v>
+      </c>
+      <c r="AR244">
+        <v>1.14</v>
+      </c>
+      <c r="AS244">
+        <v>1.83</v>
+      </c>
+      <c r="AT244">
+        <v>1.13</v>
+      </c>
+      <c r="AU244">
+        <v>1.92</v>
+      </c>
+      <c r="AV244">
+        <v>1.45</v>
+      </c>
+      <c r="AW244">
+        <v>3.37</v>
+      </c>
+      <c r="AX244">
+        <v>2</v>
+      </c>
+      <c r="AY244">
+        <v>7.5</v>
+      </c>
+      <c r="AZ244">
+        <v>2.05</v>
+      </c>
+      <c r="BA244">
+        <v>1.32</v>
+      </c>
+      <c r="BB244">
+        <v>1.65</v>
+      </c>
+      <c r="BC244">
+        <v>2.1</v>
+      </c>
+      <c r="BD244">
+        <v>2.8</v>
+      </c>
+      <c r="BE244">
+        <v>3.65</v>
+      </c>
+      <c r="BF244">
+        <v>5</v>
+      </c>
+      <c r="BG244">
+        <v>3</v>
+      </c>
+      <c r="BH244">
+        <v>3</v>
+      </c>
+      <c r="BI244">
+        <v>3</v>
+      </c>
+      <c r="BJ244">
+        <v>8</v>
+      </c>
+      <c r="BK244">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:63">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>5240310</v>
+      </c>
+      <c r="C245" t="s">
+        <v>63</v>
+      </c>
+      <c r="D245" t="s">
+        <v>64</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45136.84027777778</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+      <c r="G245" t="s">
+        <v>81</v>
+      </c>
+      <c r="H245" t="s">
+        <v>84</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>160</v>
+      </c>
+      <c r="P245" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q245">
+        <v>4</v>
+      </c>
+      <c r="R245">
+        <v>3</v>
+      </c>
+      <c r="S245">
+        <v>7</v>
+      </c>
+      <c r="T245">
+        <v>3.6</v>
+      </c>
+      <c r="U245">
+        <v>1.98</v>
+      </c>
+      <c r="V245">
+        <v>3.2</v>
+      </c>
+      <c r="W245">
+        <v>1.47</v>
+      </c>
+      <c r="X245">
+        <v>2.6</v>
+      </c>
+      <c r="Y245">
+        <v>3.45</v>
+      </c>
+      <c r="Z245">
+        <v>1.27</v>
+      </c>
+      <c r="AA245">
+        <v>10</v>
+      </c>
+      <c r="AB245">
+        <v>1.05</v>
+      </c>
+      <c r="AC245">
+        <v>2.7</v>
+      </c>
+      <c r="AD245">
+        <v>3.05</v>
+      </c>
+      <c r="AE245">
+        <v>2.55</v>
+      </c>
+      <c r="AF245">
+        <v>1.08</v>
+      </c>
+      <c r="AG245">
+        <v>8</v>
+      </c>
+      <c r="AH245">
+        <v>1.42</v>
+      </c>
+      <c r="AI245">
+        <v>2.9</v>
+      </c>
+      <c r="AJ245">
+        <v>2.15</v>
+      </c>
+      <c r="AK245">
+        <v>1.57</v>
+      </c>
+      <c r="AL245">
+        <v>1.96</v>
+      </c>
+      <c r="AM245">
+        <v>1.81</v>
+      </c>
+      <c r="AN245">
+        <v>1.54</v>
+      </c>
+      <c r="AO245">
+        <v>1.38</v>
+      </c>
+      <c r="AP245">
+        <v>1.42</v>
+      </c>
+      <c r="AQ245">
+        <v>2.38</v>
+      </c>
+      <c r="AR245">
+        <v>1.33</v>
+      </c>
+      <c r="AS245">
+        <v>2.43</v>
+      </c>
+      <c r="AT245">
+        <v>1.25</v>
+      </c>
+      <c r="AU245">
+        <v>1.69</v>
+      </c>
+      <c r="AV245">
+        <v>1.05</v>
+      </c>
+      <c r="AW245">
+        <v>2.74</v>
+      </c>
+      <c r="AX245">
+        <v>2.05</v>
+      </c>
+      <c r="AY245">
+        <v>7.5</v>
+      </c>
+      <c r="AZ245">
+        <v>2.05</v>
+      </c>
+      <c r="BA245">
+        <v>1.29</v>
+      </c>
+      <c r="BB245">
+        <v>1.6</v>
+      </c>
+      <c r="BC245">
+        <v>2</v>
+      </c>
+      <c r="BD245">
+        <v>2.65</v>
+      </c>
+      <c r="BE245">
+        <v>3.8</v>
+      </c>
+      <c r="BF245">
+        <v>7</v>
+      </c>
+      <c r="BG245">
+        <v>2</v>
+      </c>
+      <c r="BH245">
+        <v>5</v>
+      </c>
+      <c r="BI245">
+        <v>7</v>
+      </c>
+      <c r="BJ245">
+        <v>12</v>
+      </c>
+      <c r="BK245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:63">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>5240304</v>
+      </c>
+      <c r="C246" t="s">
+        <v>63</v>
+      </c>
+      <c r="D246" t="s">
+        <v>64</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45136.93055555555</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246" t="s">
+        <v>70</v>
+      </c>
+      <c r="H246" t="s">
+        <v>71</v>
+      </c>
+      <c r="I246">
+        <v>1</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>2</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246">
+        <v>3</v>
+      </c>
+      <c r="O246" t="s">
+        <v>243</v>
+      </c>
+      <c r="P246" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q246">
+        <v>4</v>
+      </c>
+      <c r="R246">
+        <v>1</v>
+      </c>
+      <c r="S246">
+        <v>5</v>
+      </c>
+      <c r="T246">
+        <v>2.05</v>
+      </c>
+      <c r="U246">
+        <v>2.15</v>
+      </c>
+      <c r="V246">
+        <v>5.75</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>2.8</v>
+      </c>
+      <c r="Y246">
+        <v>2.95</v>
+      </c>
+      <c r="Z246">
+        <v>1.35</v>
+      </c>
+      <c r="AA246">
+        <v>8.5</v>
+      </c>
+      <c r="AB246">
+        <v>1.07</v>
+      </c>
+      <c r="AC246">
+        <v>1.5</v>
+      </c>
+      <c r="AD246">
+        <v>3.75</v>
+      </c>
+      <c r="AE246">
+        <v>7</v>
+      </c>
+      <c r="AF246">
+        <v>1.05</v>
+      </c>
+      <c r="AG246">
+        <v>7.8</v>
+      </c>
+      <c r="AH246">
+        <v>1.27</v>
+      </c>
+      <c r="AI246">
+        <v>3.4</v>
+      </c>
+      <c r="AJ246">
+        <v>1.91</v>
+      </c>
+      <c r="AK246">
+        <v>1.73</v>
+      </c>
+      <c r="AL246">
+        <v>2.05</v>
+      </c>
+      <c r="AM246">
+        <v>1.71</v>
+      </c>
+      <c r="AN246">
+        <v>1.06</v>
+      </c>
+      <c r="AO246">
+        <v>1.18</v>
+      </c>
+      <c r="AP246">
+        <v>2.45</v>
+      </c>
+      <c r="AQ246">
+        <v>1.93</v>
+      </c>
+      <c r="AR246">
+        <v>0.27</v>
+      </c>
+      <c r="AS246">
+        <v>2</v>
+      </c>
+      <c r="AT246">
+        <v>0.25</v>
+      </c>
+      <c r="AU246">
+        <v>1.53</v>
+      </c>
+      <c r="AV246">
+        <v>0.93</v>
+      </c>
+      <c r="AW246">
+        <v>2.46</v>
+      </c>
+      <c r="AX246">
+        <v>1.34</v>
+      </c>
+      <c r="AY246">
+        <v>9.5</v>
+      </c>
+      <c r="AZ246">
+        <v>4.07</v>
+      </c>
+      <c r="BA246">
+        <v>1.25</v>
+      </c>
+      <c r="BB246">
+        <v>1.47</v>
+      </c>
+      <c r="BC246">
+        <v>1.9</v>
+      </c>
+      <c r="BD246">
+        <v>2.45</v>
+      </c>
+      <c r="BE246">
+        <v>3.4</v>
+      </c>
+      <c r="BF246">
+        <v>8</v>
+      </c>
+      <c r="BG246">
+        <v>4</v>
+      </c>
+      <c r="BH246">
+        <v>7</v>
+      </c>
+      <c r="BI246">
+        <v>5</v>
+      </c>
+      <c r="BJ246">
+        <v>15</v>
+      </c>
+      <c r="BK246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:63">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>5240309</v>
+      </c>
+      <c r="C247" t="s">
+        <v>63</v>
+      </c>
+      <c r="D247" t="s">
+        <v>64</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45137.72916666666</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+      <c r="G247" t="s">
+        <v>76</v>
+      </c>
+      <c r="H247" t="s">
+        <v>80</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>244</v>
+      </c>
+      <c r="P247" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q247">
+        <v>1</v>
+      </c>
+      <c r="R247">
+        <v>6</v>
+      </c>
+      <c r="S247">
+        <v>7</v>
+      </c>
+      <c r="T247">
+        <v>2.95</v>
+      </c>
+      <c r="U247">
+        <v>1.98</v>
+      </c>
+      <c r="V247">
+        <v>3.95</v>
+      </c>
+      <c r="W247">
+        <v>1.46</v>
+      </c>
+      <c r="X247">
+        <v>2.63</v>
+      </c>
+      <c r="Y247">
+        <v>3.35</v>
+      </c>
+      <c r="Z247">
+        <v>1.29</v>
+      </c>
+      <c r="AA247">
+        <v>9.5</v>
+      </c>
+      <c r="AB247">
+        <v>1.05</v>
+      </c>
+      <c r="AC247">
+        <v>2.1</v>
+      </c>
+      <c r="AD247">
+        <v>3.25</v>
+      </c>
+      <c r="AE247">
+        <v>3.2</v>
+      </c>
+      <c r="AF247">
+        <v>1.08</v>
+      </c>
+      <c r="AG247">
+        <v>8.5</v>
+      </c>
+      <c r="AH247">
+        <v>1.38</v>
+      </c>
+      <c r="AI247">
+        <v>3</v>
+      </c>
+      <c r="AJ247">
+        <v>2.28</v>
+      </c>
+      <c r="AK247">
+        <v>1.63</v>
+      </c>
+      <c r="AL247">
+        <v>1.93</v>
+      </c>
+      <c r="AM247">
+        <v>1.84</v>
+      </c>
+      <c r="AN247">
+        <v>1.34</v>
+      </c>
+      <c r="AO247">
+        <v>1.37</v>
+      </c>
+      <c r="AP247">
+        <v>1.65</v>
+      </c>
+      <c r="AQ247">
+        <v>1.27</v>
+      </c>
+      <c r="AR247">
+        <v>1</v>
+      </c>
+      <c r="AS247">
+        <v>1.42</v>
+      </c>
+      <c r="AT247">
+        <v>0.92</v>
+      </c>
+      <c r="AU247">
+        <v>1.6</v>
+      </c>
+      <c r="AV247">
+        <v>1.33</v>
+      </c>
+      <c r="AW247">
+        <v>2.93</v>
+      </c>
+      <c r="AX247">
+        <v>1.91</v>
+      </c>
+      <c r="AY247">
+        <v>7.5</v>
+      </c>
+      <c r="AZ247">
+        <v>2.2</v>
+      </c>
+      <c r="BA247">
+        <v>1.34</v>
+      </c>
+      <c r="BB247">
+        <v>1.63</v>
+      </c>
+      <c r="BC247">
+        <v>2.1</v>
+      </c>
+      <c r="BD247">
+        <v>2.87</v>
+      </c>
+      <c r="BE247">
+        <v>3.8</v>
+      </c>
+      <c r="BF247">
+        <v>8</v>
+      </c>
+      <c r="BG247">
+        <v>2</v>
+      </c>
+      <c r="BH247">
+        <v>3</v>
+      </c>
+      <c r="BI247">
+        <v>6</v>
+      </c>
+      <c r="BJ247">
+        <v>11</v>
+      </c>
+      <c r="BK247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>5240312</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45137.82291666666</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>79</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>87</v>
+      </c>
+      <c r="P248" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q248">
+        <v>6</v>
+      </c>
+      <c r="R248">
+        <v>4</v>
+      </c>
+      <c r="S248">
+        <v>10</v>
+      </c>
+      <c r="T248">
+        <v>2.38</v>
+      </c>
+      <c r="U248">
+        <v>2.2</v>
+      </c>
+      <c r="V248">
+        <v>4.5</v>
+      </c>
+      <c r="W248">
+        <v>1.36</v>
+      </c>
+      <c r="X248">
+        <v>2.88</v>
+      </c>
+      <c r="Y248">
+        <v>2.62</v>
+      </c>
+      <c r="Z248">
+        <v>1.42</v>
+      </c>
+      <c r="AA248">
+        <v>6</v>
+      </c>
+      <c r="AB248">
+        <v>1.09</v>
+      </c>
+      <c r="AC248">
+        <v>1.85</v>
+      </c>
+      <c r="AD248">
+        <v>3.3</v>
+      </c>
+      <c r="AE248">
+        <v>3.95</v>
+      </c>
+      <c r="AF248">
+        <v>1.05</v>
+      </c>
+      <c r="AG248">
+        <v>8</v>
+      </c>
+      <c r="AH248">
+        <v>1.33</v>
+      </c>
+      <c r="AI248">
+        <v>3</v>
+      </c>
+      <c r="AJ248">
+        <v>2.35</v>
+      </c>
+      <c r="AK248">
+        <v>1.6</v>
+      </c>
+      <c r="AL248">
+        <v>1.91</v>
+      </c>
+      <c r="AM248">
+        <v>1.8</v>
+      </c>
+      <c r="AN248">
+        <v>1.22</v>
+      </c>
+      <c r="AO248">
+        <v>1.3</v>
+      </c>
+      <c r="AP248">
+        <v>1.95</v>
+      </c>
+      <c r="AQ248">
+        <v>2.14</v>
+      </c>
+      <c r="AR248">
+        <v>0.92</v>
+      </c>
+      <c r="AS248">
+        <v>2.07</v>
+      </c>
+      <c r="AT248">
+        <v>0.93</v>
+      </c>
+      <c r="AU248">
+        <v>1.72</v>
+      </c>
+      <c r="AV248">
+        <v>1.37</v>
+      </c>
+      <c r="AW248">
+        <v>3.09</v>
+      </c>
+      <c r="AX248">
+        <v>1.55</v>
+      </c>
+      <c r="AY248">
+        <v>8</v>
+      </c>
+      <c r="AZ248">
+        <v>3.02</v>
+      </c>
+      <c r="BA248">
+        <v>1.38</v>
+      </c>
+      <c r="BB248">
+        <v>1.71</v>
+      </c>
+      <c r="BC248">
+        <v>2.25</v>
+      </c>
+      <c r="BD248">
+        <v>3.1</v>
+      </c>
+      <c r="BE248">
+        <v>3.28</v>
+      </c>
+      <c r="BF248">
+        <v>4</v>
+      </c>
+      <c r="BG248">
+        <v>4</v>
+      </c>
+      <c r="BH248">
+        <v>9</v>
+      </c>
+      <c r="BI248">
+        <v>4</v>
+      </c>
+      <c r="BJ248">
+        <v>13</v>
+      </c>
+      <c r="BK248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>5240307</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45137.91666666666</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249" t="s">
+        <v>73</v>
+      </c>
+      <c r="H249" t="s">
+        <v>74</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>2</v>
+      </c>
+      <c r="O249" t="s">
+        <v>245</v>
+      </c>
+      <c r="P249" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q249">
+        <v>2</v>
+      </c>
+      <c r="R249">
+        <v>6</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>2.95</v>
+      </c>
+      <c r="U249">
+        <v>2.06</v>
+      </c>
+      <c r="V249">
+        <v>3.72</v>
+      </c>
+      <c r="W249">
+        <v>1.42</v>
+      </c>
+      <c r="X249">
+        <v>2.62</v>
+      </c>
+      <c r="Y249">
+        <v>2.9</v>
+      </c>
+      <c r="Z249">
+        <v>1.36</v>
+      </c>
+      <c r="AA249">
+        <v>6.5</v>
+      </c>
+      <c r="AB249">
+        <v>1.08</v>
+      </c>
+      <c r="AC249">
+        <v>2.35</v>
+      </c>
+      <c r="AD249">
+        <v>3.3</v>
+      </c>
+      <c r="AE249">
+        <v>2.75</v>
+      </c>
+      <c r="AF249">
+        <v>1.05</v>
+      </c>
+      <c r="AG249">
+        <v>8</v>
+      </c>
+      <c r="AH249">
+        <v>1.33</v>
+      </c>
+      <c r="AI249">
+        <v>3</v>
+      </c>
+      <c r="AJ249">
+        <v>2.2</v>
+      </c>
+      <c r="AK249">
+        <v>1.68</v>
+      </c>
+      <c r="AL249">
+        <v>1.8</v>
+      </c>
+      <c r="AM249">
+        <v>1.91</v>
+      </c>
+      <c r="AN249">
+        <v>1.38</v>
+      </c>
+      <c r="AO249">
+        <v>1.33</v>
+      </c>
+      <c r="AP249">
+        <v>1.59</v>
+      </c>
+      <c r="AQ249">
+        <v>1.36</v>
+      </c>
+      <c r="AR249">
+        <v>0.91</v>
+      </c>
+      <c r="AS249">
+        <v>1.5</v>
+      </c>
+      <c r="AT249">
+        <v>0.83</v>
+      </c>
+      <c r="AU249">
+        <v>1.47</v>
+      </c>
+      <c r="AV249">
+        <v>1.17</v>
+      </c>
+      <c r="AW249">
+        <v>2.64</v>
+      </c>
+      <c r="AX249">
+        <v>1.75</v>
+      </c>
+      <c r="AY249">
+        <v>8</v>
+      </c>
+      <c r="AZ249">
+        <v>2.44</v>
+      </c>
+      <c r="BA249">
+        <v>1.3</v>
+      </c>
+      <c r="BB249">
+        <v>1.55</v>
+      </c>
+      <c r="BC249">
+        <v>1.98</v>
+      </c>
+      <c r="BD249">
+        <v>2.7</v>
+      </c>
+      <c r="BE249">
+        <v>3.8</v>
+      </c>
+      <c r="BF249">
+        <v>4</v>
+      </c>
+      <c r="BG249">
+        <v>6</v>
+      </c>
+      <c r="BH249">
+        <v>2</v>
+      </c>
+      <c r="BI249">
+        <v>5</v>
+      </c>
+      <c r="BJ249">
+        <v>6</v>
+      </c>
+      <c r="BK249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>5240306</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45138.75</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250" t="s">
+        <v>72</v>
+      </c>
+      <c r="H250" t="s">
+        <v>66</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250" t="s">
+        <v>85</v>
+      </c>
+      <c r="P250" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>7</v>
+      </c>
+      <c r="T250">
+        <v>2.85</v>
+      </c>
+      <c r="U250">
+        <v>1.94</v>
+      </c>
+      <c r="V250">
+        <v>4.35</v>
+      </c>
+      <c r="W250">
+        <v>1.48</v>
+      </c>
+      <c r="X250">
+        <v>2.48</v>
+      </c>
+      <c r="Y250">
+        <v>3.6</v>
+      </c>
+      <c r="Z250">
+        <v>1.27</v>
+      </c>
+      <c r="AA250">
+        <v>10.5</v>
+      </c>
+      <c r="AB250">
+        <v>1.04</v>
+      </c>
+      <c r="AC250">
+        <v>2.15</v>
+      </c>
+      <c r="AD250">
+        <v>3.1</v>
+      </c>
+      <c r="AE250">
+        <v>2.99</v>
+      </c>
+      <c r="AF250">
+        <v>1.09</v>
+      </c>
+      <c r="AG250">
+        <v>8</v>
+      </c>
+      <c r="AH250">
+        <v>1.45</v>
+      </c>
+      <c r="AI250">
+        <v>2.75</v>
+      </c>
+      <c r="AJ250">
+        <v>2.35</v>
+      </c>
+      <c r="AK250">
+        <v>1.53</v>
+      </c>
+      <c r="AL250">
+        <v>2.02</v>
+      </c>
+      <c r="AM250">
+        <v>1.75</v>
+      </c>
+      <c r="AN250">
+        <v>1.28</v>
+      </c>
+      <c r="AO250">
+        <v>1.38</v>
+      </c>
+      <c r="AP250">
+        <v>1.72</v>
+      </c>
+      <c r="AQ250">
+        <v>1.18</v>
+      </c>
+      <c r="AR250">
+        <v>0.36</v>
+      </c>
+      <c r="AS250">
+        <v>1.17</v>
+      </c>
+      <c r="AT250">
+        <v>0.42</v>
+      </c>
+      <c r="AU250">
+        <v>1.43</v>
+      </c>
+      <c r="AV250">
+        <v>0.9</v>
+      </c>
+      <c r="AW250">
+        <v>2.33</v>
+      </c>
+      <c r="AX250">
+        <v>1.64</v>
+      </c>
+      <c r="AY250">
+        <v>8</v>
+      </c>
+      <c r="AZ250">
+        <v>2.77</v>
+      </c>
+      <c r="BA250">
+        <v>1.3</v>
+      </c>
+      <c r="BB250">
+        <v>1.57</v>
+      </c>
+      <c r="BC250">
+        <v>1.98</v>
+      </c>
+      <c r="BD250">
+        <v>2.7</v>
+      </c>
+      <c r="BE250">
+        <v>3.8</v>
+      </c>
+      <c r="BF250">
+        <v>2</v>
+      </c>
+      <c r="BG250">
+        <v>2</v>
+      </c>
+      <c r="BH250">
+        <v>9</v>
+      </c>
+      <c r="BI250">
+        <v>5</v>
+      </c>
+      <c r="BJ250">
+        <v>11</v>
+      </c>
+      <c r="BK250">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>5240305</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45138.84027777778</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+      <c r="G251" t="s">
+        <v>68</v>
+      </c>
+      <c r="H251" t="s">
+        <v>83</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>2</v>
+      </c>
+      <c r="K251">
+        <v>2</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>2</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>85</v>
+      </c>
+      <c r="P251" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q251">
+        <v>7</v>
+      </c>
+      <c r="R251">
+        <v>4</v>
+      </c>
+      <c r="S251">
+        <v>11</v>
+      </c>
+      <c r="T251">
+        <v>2.8</v>
+      </c>
+      <c r="U251">
+        <v>1.95</v>
+      </c>
+      <c r="V251">
+        <v>4.4</v>
+      </c>
+      <c r="W251">
+        <v>1.5</v>
+      </c>
+      <c r="X251">
+        <v>2.48</v>
+      </c>
+      <c r="Y251">
+        <v>3.65</v>
+      </c>
+      <c r="Z251">
+        <v>1.26</v>
+      </c>
+      <c r="AA251">
+        <v>11</v>
+      </c>
+      <c r="AB251">
+        <v>1.04</v>
+      </c>
+      <c r="AC251">
+        <v>2.09</v>
+      </c>
+      <c r="AD251">
+        <v>3.15</v>
+      </c>
+      <c r="AE251">
+        <v>3.1</v>
+      </c>
+      <c r="AF251">
+        <v>1.09</v>
+      </c>
+      <c r="AG251">
+        <v>7</v>
+      </c>
+      <c r="AH251">
+        <v>1.46</v>
+      </c>
+      <c r="AI251">
+        <v>2.7</v>
+      </c>
+      <c r="AJ251">
+        <v>2.4</v>
+      </c>
+      <c r="AK251">
+        <v>1.5</v>
+      </c>
+      <c r="AL251">
+        <v>2.1</v>
+      </c>
+      <c r="AM251">
+        <v>1.7</v>
+      </c>
+      <c r="AN251">
+        <v>1.27</v>
+      </c>
+      <c r="AO251">
+        <v>1.38</v>
+      </c>
+      <c r="AP251">
+        <v>1.76</v>
+      </c>
+      <c r="AQ251">
+        <v>2.23</v>
+      </c>
+      <c r="AR251">
+        <v>0.73</v>
+      </c>
+      <c r="AS251">
+        <v>2.07</v>
+      </c>
+      <c r="AT251">
+        <v>0.92</v>
+      </c>
+      <c r="AU251">
+        <v>1.5</v>
+      </c>
+      <c r="AV251">
+        <v>1.25</v>
+      </c>
+      <c r="AW251">
+        <v>2.75</v>
+      </c>
+      <c r="AX251">
+        <v>1.77</v>
+      </c>
+      <c r="AY251">
+        <v>7.4</v>
+      </c>
+      <c r="AZ251">
+        <v>2.57</v>
+      </c>
+      <c r="BA251">
+        <v>1.3</v>
+      </c>
+      <c r="BB251">
+        <v>1.53</v>
+      </c>
+      <c r="BC251">
+        <v>1.88</v>
+      </c>
+      <c r="BD251">
+        <v>2.4</v>
+      </c>
+      <c r="BE251">
+        <v>3.2</v>
+      </c>
+      <c r="BF251">
+        <v>6</v>
+      </c>
+      <c r="BG251">
+        <v>4</v>
+      </c>
+      <c r="BH251">
+        <v>7</v>
+      </c>
+      <c r="BI251">
+        <v>3</v>
+      </c>
+      <c r="BJ251">
+        <v>13</v>
+      </c>
+      <c r="BK251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>5240308</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45138.93055555555</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+      <c r="G252" t="s">
+        <v>75</v>
+      </c>
+      <c r="H252" t="s">
+        <v>65</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>2</v>
+      </c>
+      <c r="O252" t="s">
+        <v>128</v>
+      </c>
+      <c r="P252" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q252">
+        <v>6</v>
+      </c>
+      <c r="R252">
+        <v>4</v>
+      </c>
+      <c r="S252">
+        <v>10</v>
+      </c>
+      <c r="T252">
+        <v>2.38</v>
+      </c>
+      <c r="U252">
+        <v>2.1</v>
+      </c>
+      <c r="V252">
+        <v>5.5</v>
+      </c>
+      <c r="W252">
+        <v>1.44</v>
+      </c>
+      <c r="X252">
+        <v>2.63</v>
+      </c>
+      <c r="Y252">
+        <v>3.25</v>
+      </c>
+      <c r="Z252">
+        <v>1.33</v>
+      </c>
+      <c r="AA252">
+        <v>9</v>
+      </c>
+      <c r="AB252">
+        <v>1.07</v>
+      </c>
+      <c r="AC252">
+        <v>1.74</v>
+      </c>
+      <c r="AD252">
+        <v>3.55</v>
+      </c>
+      <c r="AE252">
+        <v>3.8</v>
+      </c>
+      <c r="AF252">
+        <v>1.06</v>
+      </c>
+      <c r="AG252">
+        <v>7.2</v>
+      </c>
+      <c r="AH252">
+        <v>1.3</v>
+      </c>
+      <c r="AI252">
+        <v>3.2</v>
+      </c>
+      <c r="AJ252">
+        <v>2</v>
+      </c>
+      <c r="AK252">
+        <v>1.7</v>
+      </c>
+      <c r="AL252">
+        <v>2</v>
+      </c>
+      <c r="AM252">
+        <v>1.73</v>
+      </c>
+      <c r="AN252">
+        <v>1.15</v>
+      </c>
+      <c r="AO252">
+        <v>1.28</v>
+      </c>
+      <c r="AP252">
+        <v>1.8</v>
+      </c>
+      <c r="AQ252">
+        <v>1.55</v>
+      </c>
+      <c r="AR252">
+        <v>0.91</v>
+      </c>
+      <c r="AS252">
+        <v>1.5</v>
+      </c>
+      <c r="AT252">
+        <v>0.92</v>
+      </c>
+      <c r="AU252">
+        <v>1.64</v>
+      </c>
+      <c r="AV252">
+        <v>1.26</v>
+      </c>
+      <c r="AW252">
+        <v>2.9</v>
+      </c>
+      <c r="AX252">
+        <v>1.41</v>
+      </c>
+      <c r="AY252">
+        <v>9</v>
+      </c>
+      <c r="AZ252">
+        <v>3.58</v>
+      </c>
+      <c r="BA252">
+        <v>1.27</v>
+      </c>
+      <c r="BB252">
+        <v>1.5</v>
+      </c>
+      <c r="BC252">
+        <v>2</v>
+      </c>
+      <c r="BD252">
+        <v>2.5</v>
+      </c>
+      <c r="BE252">
+        <v>3.5</v>
+      </c>
+      <c r="BF252">
+        <v>7</v>
+      </c>
+      <c r="BG252">
+        <v>5</v>
+      </c>
+      <c r="BH252">
+        <v>5</v>
+      </c>
+      <c r="BI252">
+        <v>6</v>
+      </c>
+      <c r="BJ252">
+        <v>12</v>
+      </c>
+      <c r="BK252">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
